--- a/Temizlenmiş Üye Bilgi Liste/Temizlenmiş Üye Bilgi Liste - 1. komite.xlsx
+++ b/Temizlenmiş Üye Bilgi Liste/Temizlenmiş Üye Bilgi Liste - 1. komite.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E454"/>
+  <dimension ref="A1:H454"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,21 @@
           <t>Tescilli Adresi</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Şirket Türü</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Meslek Grubu Numarası</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Meslek Grubu Adı</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -482,6 +497,21 @@
           <t>HALKAPINAR MAHALLESİ 1490 SOKAK NO:3  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -501,6 +531,21 @@
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -524,6 +569,21 @@
           <t xml:space="preserve"> MANSUROĞLU MAH. ANKARA CAD. NO: 81 İÇ KAPI NO: 148 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -547,6 +607,21 @@
           <t>ATATÜRK MAHALLESİ 2179 SK. NO: 2B URLA            / İZMİR</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -570,6 +645,21 @@
           <t xml:space="preserve"> ADALET MAH. MANAS BUL. FOLKART TOWERS NO: 47B İÇ KAPI NO: 2601 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -593,6 +683,21 @@
           <t xml:space="preserve"> 29 EKİM ATATÜRK   NO:239/G-81 BUCA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -616,6 +721,21 @@
           <t>GÜLBAHÇE MAHALLESİ 12080 NO:23  URLA            / İZMİR</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -639,6 +759,21 @@
           <t xml:space="preserve"> SANAYİ CD. NO:69  ARMUTLU KEMALPAŞA       / İZMİR</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -662,6 +797,21 @@
           <t>TUNA                      MAHALLESİ ŞEHİT ÜSTEĞMEN AHMET KONUKSEVER SOKAK NO:3  KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -685,6 +835,21 @@
           <t xml:space="preserve"> ADALET MAH. 1586/3 SK.  NO: 40  İÇ KAPI NO: 7 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -708,6 +873,21 @@
           <t xml:space="preserve"> ÇINARLI MAH. ANKARA ASFALTI CAD.  NO: 15  İÇ KAPI NO: 451 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -731,6 +911,21 @@
           <t>ADALET MAHALLESİ 1586/3  SOK.  NO: 40  İÇ KAPI NO: 4 BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -754,6 +949,21 @@
           <t>KAZIMDİRİK MAHALLESİ 367 SOK. NO: 3-5  İÇ KAPI NO: 414 BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -777,6 +987,21 @@
           <t xml:space="preserve"> EGEMENLİK MAH. 6106/15 SK. NO: 5A BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -800,6 +1025,21 @@
           <t xml:space="preserve"> ÇAMBEL MAH. ANKARA CAD.  NO: 341/2 KEMALPAŞA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -823,6 +1063,21 @@
           <t>KAZIMDİRİK                MAHALLESİ 296/2 SOKAK NO:33  3.SANAYİ SİTESİ BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -846,6 +1101,21 @@
           <t xml:space="preserve"> AOSB MAH. M. KEMAL ATATÜRK BUL. NO: 21 ÇİĞLİ / İZMİR  / </t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -869,6 +1139,21 @@
           <t>AKDENİZ                   MAHALLESİ 1329 SOKAK NO:20/603  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -892,6 +1177,21 @@
           <t xml:space="preserve">  KAYNAKLAR KÖYÜ BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -915,6 +1215,21 @@
           <t xml:space="preserve"> KEMALPAŞA YOLU CAD. NO:33/1  YUKARI KIZILCA KEMALPAŞA       / İZMİR</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -938,6 +1253,21 @@
           <t xml:space="preserve"> 1202/9 SOK. NO:5  YENİŞEHİR KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -961,6 +1291,21 @@
           <t>29 EKİM MAHALLESİ ATATÜRK CAD.  KAYNAKLAR BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -984,6 +1329,21 @@
           <t>BASIN SİTESİ MAHALLESİ GAZETECİ HASAN TAHSİN CD.  NURİYE APT. Apt.  NO: 129 KARABAĞLAR      / İZMİR</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1007,6 +1367,21 @@
           <t>29 EKİM MAHALLESİ ATATÜRK CAD. NO:239/G103  BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1030,6 +1405,21 @@
           <t xml:space="preserve"> NO:85 MEYVE SEBZE HALİ BUCA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1053,6 +1443,21 @@
           <t xml:space="preserve"> 29 EKİM MAH. ATATÜRK CAD.  NO: 239V  İÇ KAPI NO: 26 BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1076,6 +1481,21 @@
           <t xml:space="preserve"> AKDENİZ MAH. GAZİ OSMAN PAŞA BUL. SÜREYYA REYENT İŞHAN NO: 30 İÇ KAPI NO: 608 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1099,6 +1519,21 @@
           <t>CELAL BAYAR MAHALLESİ 5152 SOK. NO:9  ÇEŞME           / İZMİR</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1122,6 +1557,21 @@
           <t xml:space="preserve"> ÇINARLI MAH. ŞEHİT POLİS FETHİ SEKİN CAD.  NO: 1  İÇ KAPI NO: 1101 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1145,6 +1595,21 @@
           <t>29 EKİM MAHALLESİ ATATÜRK CAD. NO: 239 G/100 BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1168,6 +1633,21 @@
           <t>TEPECİK                   MAHALLESİ KUŞADASI CAD. NO: 79B SEFERİHİSAR     / İZMİR</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1191,6 +1671,21 @@
           <t>İNÖNÜ                     MAHALLESİ 672 SK.  NO: 114A  BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1214,6 +1709,21 @@
           <t xml:space="preserve"> VASIF ÇINAR BULVARI NO:5  DAİRE:4 ALSANCAK KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1237,6 +1747,21 @@
           <t>OSMANGAZİ MAHALLESİ 592/1  SOK. NO:3  BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1260,6 +1785,21 @@
           <t xml:space="preserve"> 29 EKİM ATATÜRK   NO:239 V/25 BUCA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1283,6 +1823,21 @@
           <t xml:space="preserve"> TURABİYE MAH. NECAT HEPKON CAD.  NO: 46 SEFERİHİSAR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1306,6 +1861,21 @@
           <t xml:space="preserve"> 29 EKİM MAH. ATATÜRK CAD. NO: 239G İÇ KAPI NO: 101 BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1329,6 +1899,21 @@
           <t xml:space="preserve"> FATİH MAH. 1191 SK. NO: 5/6 GAZİEMİR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1352,6 +1937,21 @@
           <t xml:space="preserve"> BOSTANLI MAHALLESİ 1779 SK.  NO: 4 /1A  KARŞIYAKA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1375,6 +1975,21 @@
           <t xml:space="preserve"> TORASAN MAH. PINARDERE SK.  NO: 21 URLA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1398,6 +2013,21 @@
           <t xml:space="preserve"> İSMET KAPTAN MAH. ŞEHİT NEVRES BUL. DEREN PLAZA BLOK  NO: 10  İÇ KAPI NO: 11 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1421,6 +2051,21 @@
           <t>ZAFER MAHALLESİ 2347 SK. NO:11  BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1444,6 +2089,21 @@
           <t xml:space="preserve"> KEMALPAŞA OSB MAH. İZMİR ANKARA CAD.  NO: 67  İÇ KAPI NO: 1 KEMALPAŞA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1467,6 +2127,21 @@
           <t xml:space="preserve"> YILDIZ MAH. 206/28 SK. NO: 3 BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1490,6 +2165,21 @@
           <t xml:space="preserve"> ADALET MAH. MANAS BUL. FOLKART TOWERS NO: 39 İÇ KAPI NO: 3408 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1513,6 +2203,21 @@
           <t xml:space="preserve"> 29 EKİM MAHALLESİ ATATÜRK CAD.  NO: 239 P/48  BUCA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1536,6 +2241,21 @@
           <t>ÇOLAK İBRAHİM BEY MAHALLESİ FEVZİ ÇAKMAK CAD. NO:2  SEFERİHİSAR     / İZMİR</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1559,6 +2279,21 @@
           <t xml:space="preserve"> ÇAMÖNÜ MAH. 21 SK. NO: 11 MENDERES / İZMİR  / </t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1582,6 +2317,21 @@
           <t xml:space="preserve"> ÇOLAK İBRAHİM BEY  MAH. FEVZİ ÇAKMAK CAD.  NO: 2 SEFERİHİSAR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1605,6 +2355,21 @@
           <t xml:space="preserve"> KASIMPAŞA MAH. 201/1 SK. NO: 4C MENDERES / İZMİR  / </t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1628,6 +2393,21 @@
           <t>SEKİZ EYLÜL MAHALLESİ 5012 SK. NO:226/1  KEMALPAŞA       / İZMİR</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1651,6 +2431,21 @@
           <t>SOĞUKPINAR MAHALLESİ ATATÜRK BULVARI NO: 12  İÇ KAPI NO: 9 KEMALPAŞA       / İZMİR</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1674,6 +2469,21 @@
           <t>İSMET KAPTAN              MAHALLESİ 1367 SOKAK İSMET KAPTAN MAH. 1367 SK. YAZGILI İŞ MERKEZİ KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1697,6 +2507,21 @@
           <t>YENİKALE                  MAHALLESİ İSMAİL CEM SOK. NO:4/19  NARLIDERE       / İZMİR</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1720,6 +2545,21 @@
           <t>EGEMENLİK MAHALLESİ 6108 SOKAK KARA NAK.SİTESİ F BLOK  NO: 51/10B BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1743,6 +2583,21 @@
           <t xml:space="preserve"> HALKAPINAR  1490  NO:4/A KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1766,6 +2621,21 @@
           <t xml:space="preserve"> NO:89 MEYVE SEBZE HALİ KAYNAKLAR KÖYÜ BUCA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1789,6 +2659,21 @@
           <t xml:space="preserve"> KALABAK MAH. 3031 SK. NO: 4 URLA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -1812,6 +2697,21 @@
           <t xml:space="preserve"> TEPECİK MAHALLESİ KAVAKDERE CD. NO:60 SEFERİHİSAR/İZMİR  / </t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -1835,6 +2735,21 @@
           <t xml:space="preserve"> NO:42  KAYNAKLAR BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -1858,6 +2773,21 @@
           <t>29 EKİM MAHALLESİ ATATÜRK CAD. NO: 239P  İÇ KAPI NO: 44 BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -1877,6 +2807,21 @@
         </is>
       </c>
       <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -1900,6 +2845,21 @@
           <t xml:space="preserve"> İSMET KAPTAN MAH. 1369 SK. TANAÇAN BLOK  NO: 40 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -1923,6 +2883,21 @@
           <t xml:space="preserve"> 29 EKİM MAH. ATATÜRK CAD. NO: 239V  İÇ KAPI NO: 8 BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -1946,6 +2921,21 @@
           <t xml:space="preserve"> 29 EKİM MAH. ATATÜRK CAD. NO: 239C İÇ KAPI NO: 4 BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -1969,6 +2959,21 @@
           <t>FATİH MAHALLESİ 1209 SOK. NO:2  GAZİEMİR        / İZMİR</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -1992,6 +2997,21 @@
           <t>29 EKİM MAHALLESİ ATATÜRK CAD.  BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -2015,6 +3035,21 @@
           <t>MİMAR SİNAN               MAHALLESİ MİMAR SİNAN CAD. NO:27/5  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -2034,6 +3069,21 @@
         </is>
       </c>
       <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -2057,6 +3107,21 @@
           <t>29 EKİM MAHALLESİ ATATÜRK CAD. NO:239G/112-239H/112A KAYNAKLAR BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -2080,6 +3145,21 @@
           <t xml:space="preserve"> ADALET MAHALLESİ  1586/1  NO:NO:1/B/K:2 D:6  BAYRAKLI/İZMİR  / </t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -2103,6 +3183,21 @@
           <t>KAZIMDİRİK                MAHALLESİ 296/2 SOKAK NO:33  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -2126,6 +3221,21 @@
           <t xml:space="preserve"> KAVUN VE KARPUZ HALİ NO:3 KAYNAKLAR BUCA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -2149,6 +3259,21 @@
           <t>HÜRRİYET MAHALLESİ AYDERESİ SULUK KÜME EVLERİ NO:4/B ARMUTLU KEMALPAŞA       / İZMİR</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -2172,6 +3297,21 @@
           <t>ADALET MAHALLESİ MANAS BULV. FOLKART TOWERS BLOK  NO: 47B  İÇ KAPI NO: 260 BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -2195,6 +3335,21 @@
           <t>KÖYİÇİ MAHALLESİ ATATÜRK SK. NO:7  SALMAN KÖYÜ KARABURUN       / İZMİR</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -2218,6 +3373,21 @@
           <t xml:space="preserve"> 29 EKİM MAHALLESİ ATATÜRK CAD.  NO: 239 C/16  BUCA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -2241,6 +3411,21 @@
           <t>FİKRİ ALTAY               MAHALLESİ ANADOLU CADDESİ NO:541  KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -2264,6 +3449,21 @@
           <t xml:space="preserve"> AKDENİZ MAH. CUMHURİYET BUL. ERDEN İŞ HANI BLOK  NO: 87  İÇ KAPI NO: 12 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -2287,6 +3487,21 @@
           <t xml:space="preserve"> TORASAN MAHALLESİ PINARDERE SK. NO: 43/ URLA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -2310,6 +3525,21 @@
           <t xml:space="preserve"> PINARBAŞI CAD. NO:89 BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -2333,6 +3563,21 @@
           <t xml:space="preserve"> 9 EYLÜL MEYDANI NO:3  KAT:6 DAİRE:61 BASMANE / İZMİR</t>
         </is>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -2356,6 +3601,21 @@
           <t>ADALET MAHALLESİ MANAS  BULVARI NO:47/B FOLKART TOWERS BLOK  İÇ KAPI NO: 2601 BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -2379,6 +3639,21 @@
           <t>YENİKENT MAHALLESİ EMEK SK. İZLEMEK-YAŞAM SİTESİ İZLEMEK-YAŞAM BLOK   URLA            / İZMİR</t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -2402,6 +3677,21 @@
           <t xml:space="preserve"> HALKAPINAR MAH. 1203 SK. NO: 13  İÇ KAPI NO: 724 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -2425,6 +3715,21 @@
           <t xml:space="preserve"> ADATEPE MAH. DOĞUŞ CAD. NO: 207AG İÇ KAPI NO: 1 BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -2448,6 +3753,21 @@
           <t xml:space="preserve"> MERKEZ HAL NO:28  KAYNAKLAR BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -2471,6 +3791,21 @@
           <t>İÇMELER MAHALLESİ 1154 SK. NO:10  URLA            / İZMİR</t>
         </is>
       </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -2490,6 +3825,21 @@
         </is>
       </c>
       <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -2513,6 +3863,21 @@
           <t>KÜLTÜR                    MAHALLESİ ŞEHİT NEVRES BULVARI NO:5/8-9  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -2536,6 +3901,21 @@
           <t xml:space="preserve"> ADALET MAHALLESİ MANAS BLV. FOLKART TOWERS APT.  NO: 47 B/2809  BAYRAKLI/İZMİR  / </t>
         </is>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -2559,6 +3939,21 @@
           <t xml:space="preserve"> GAZİ MAH.   28/25   NO:NO:11/A GAZİEMİR/İZMİR  / </t>
         </is>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -2582,6 +3977,21 @@
           <t>ATATÜRK                   MAHALLESİ 29 EKİM CADDESİ NO: 239G  İÇ KAPI NO: 107  BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -2605,6 +4015,21 @@
           <t>MANSUROĞLU MAHALLESİ 286/2  SOK. NO:2/15  BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -2628,6 +4053,21 @@
           <t xml:space="preserve"> KÜLTÜR MAH. DR. MUSTAFA ENVER BEY CAD. BERKİ APT BLOK  NO: 1/1  İÇ KAPI NO: 81 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -2651,6 +4091,21 @@
           <t xml:space="preserve"> 29 EKİM ATATÜRK   NO:239 V/10 BUCA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -2674,6 +4129,21 @@
           <t xml:space="preserve"> KOCATEPE MAH. 574/1 SK.  NO: 4  İÇ KAPI NO: 5 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -2697,6 +4167,21 @@
           <t>KAZIM DİRİK MAHALLESİ 375 SOK. NO:18  KAT:2 DAİRE:205 BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -2720,6 +4205,21 @@
           <t xml:space="preserve"> TEPECİK MAHALLESİ NO:34 KUŞADASI YOLU ÜZERİ SEFERİHİSAR/İZMİR  / </t>
         </is>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -2743,6 +4243,21 @@
           <t xml:space="preserve"> CUMHURİYET BULVARI NO:26 CUMHURİYET BULV. KAT:7 DAİRE:713 KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -2766,6 +4281,21 @@
           <t xml:space="preserve"> ÇİLE  OVA  NO:35 MENDERES/İZMİR  / </t>
         </is>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -2789,6 +4319,21 @@
           <t>İNÖNÜ                     MAHALLESİ 672/10 SK. NO:28/A  BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -2812,6 +4357,21 @@
           <t>29 EKİM MAHALLESİ ATATÜRK CAD. NO: 239V  İÇ KAPI NO: 18  BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -2835,6 +4395,21 @@
           <t>29 EKİM MAHALLESİ ATATÜRK CAD. NO: 239 G/98 BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -2858,6 +4433,21 @@
           <t>MANSUROĞLU MAHALLESİ 288/4  SOK. NO: 9/1  İÇ KAPI NO: 43  BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -2881,6 +4471,21 @@
           <t xml:space="preserve"> MANSUROĞLU MAH. 286/1 SK. NO: 1 İÇ KAPI NO: 215 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -2904,6 +4509,21 @@
           <t>İSMET KAPTAN MAHALLESİ 9 EYLÜL MEYDANI HÜDAVERDİ İŞ MERKEZİ BLOK  NO: 3   KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -2927,6 +4547,21 @@
           <t>YAYLACIK                  MAHALLESİ 178 SK. NO:10/10  BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -2950,6 +4585,21 @@
           <t xml:space="preserve"> BAHÇELİEVLER MAH. HALİDE EDİP ADIVAR CAD. NO: 14 İÇ KAPI NO: 15 KARABAĞLAR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -2973,6 +4623,21 @@
           <t xml:space="preserve"> ÇOLAK İBRAHİM BEY  MAH. FEVZİ ÇAKMAK CAD.  NO: 2 SEFERİHİSAR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -2996,6 +4661,21 @@
           <t>ADALET MAHALLESİ MANAS  FOLKART TOWERS BLOK  NO: 47B  İÇ KAPI NO: 26 BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -3019,6 +4699,21 @@
           <t xml:space="preserve"> SARIYER MAH. COŞKUN KALE SK. NO: 100A KARABAĞLAR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -3042,6 +4737,21 @@
           <t>ADALET MAHALLESİ MANAS BLV. NO: 39  İÇ KAPI NO: 3408  BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -3065,6 +4775,21 @@
           <t>AŞAĞIKIZILCA MAHALLESİ AŞAĞIKIZILCA OVA EVLERİ YOLU (KÜME EVLER)  NO: 1/1A  İÇ KAPI NO: 1 KEMALPAŞA       / İZMİR</t>
         </is>
       </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -3088,6 +4813,21 @@
           <t>KAVAKLIDERE MAHALLESİ ÇITAK SOKAK NO:12/1  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -3111,6 +4851,21 @@
           <t xml:space="preserve"> GÖRECE CUMHURİYET MAH. CEMAL GÜRSEL BUL. NO: 8 MENDERES / İZMİR  / </t>
         </is>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -3134,6 +4889,21 @@
           <t xml:space="preserve"> 6219 SK. NO:11 GÜMÜLDÜR FEVZİ ÇAKMAK MAH. İÇ KAPI NO: 2  MENDERES        / İZMİR</t>
         </is>
       </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -3153,6 +4923,21 @@
         </is>
       </c>
       <c r="E119" t="inlineStr"/>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -3176,6 +4961,21 @@
           <t>ZAFER MAHALLESİ 2373 SOKAK NO:9  BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -3199,6 +4999,21 @@
           <t xml:space="preserve"> SELVİLİ MAHALLESİ 4139 SK.  NO: 29 A/A  KARABAĞLAR/İZMİR  / </t>
         </is>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -3222,6 +5037,21 @@
           <t>SARILAR MAHALLESİ NO:177 SAZ MAH.YOLU KÜME EVLERİ 18738316 SİTESİ KEMALPAŞA       / İZMİR</t>
         </is>
       </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -3245,6 +5075,21 @@
           <t xml:space="preserve"> MEYVE SEBZE HALİ  NO: 51 KAYNAKLAR BUCA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -3268,6 +5113,21 @@
           <t xml:space="preserve"> YAKAKÖY MAH. POLİGON SK. NO: 38/1 BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -3291,6 +5151,21 @@
           <t xml:space="preserve"> 29 EKİM MAHALLESİ ATATÜRK CAD.  NO: 239 P/54  BUCA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -3314,6 +5189,21 @@
           <t xml:space="preserve"> SEKİZ EYLÜL MAH. 113 SK. NO: 16 İÇ KAPI NO: 8 KEMALPAŞA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -3337,6 +5227,21 @@
           <t>ÖZBEK MAHALLESİ 6217 SK. NO: 29 URLA            / İZMİR</t>
         </is>
       </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -3360,6 +5265,21 @@
           <t xml:space="preserve"> 29 EKİM MAH. ATATÜRK CAD. NO: 239C İÇ KAPI NO: 24 BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -3383,6 +5303,21 @@
           <t xml:space="preserve"> KAZIMDİRİK MAHALLESİ 161 SOKAK NO:11/D BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -3406,6 +5341,21 @@
           <t>29 EKİM MAHALLESİ ATATÜRK CAD. NO: 239 G/96 BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -3429,6 +5379,21 @@
           <t xml:space="preserve"> MERKEZ YENİ BOSTAN HALİ NO:24 KAYNAKLAR KÖYÜ BUCA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -3452,6 +5417,21 @@
           <t xml:space="preserve"> 1 SOK. NO:2/506  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -3475,6 +5455,21 @@
           <t>AKSOY                     MAHALLESİ 1746 SK. GÜLTEKİN Apt.  NO: 4/2 KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -3498,6 +5493,21 @@
           <t>SOĞUKPINAR MAHALLESİ SOĞUKPINAR (KÜME EVLER) NO:47  KEMALPAŞA       / İZMİR</t>
         </is>
       </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -3521,6 +5531,21 @@
           <t xml:space="preserve"> KAVAKLIDERE MAH. ÇITAK SK. NO: 12/1 BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -3544,6 +5569,21 @@
           <t xml:space="preserve"> NO:14 BOSTAN HALİ KAYNAKLAR BUCA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -3567,6 +5607,21 @@
           <t>HALKAPINAR MAHALLESİ 1203/11 SOKAK K.HASAN ATLI İŞMERK. BLOK  NO: 4/630 KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -3590,6 +5645,21 @@
           <t xml:space="preserve"> ONUR MAH. 7370 SK.  NO: 15 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -3613,6 +5683,21 @@
           <t>KONAK                     MAHALLESİ ÇOBANOĞLU ZEKİ BEY CADDESİ NO:7/204  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -3636,6 +5721,21 @@
           <t xml:space="preserve"> BAYRAKLI MAHALLESİ ORD. PROF. DR. EKREM AKURGAL SK. HAFİZE HANIM APT.  NO: 85 A  BAYRAKLI/İZMİR  / </t>
         </is>
       </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -3659,6 +5759,21 @@
           <t>29 EKİM MAHALLESİ ATATÜRK CAD. NO:239/C-12  BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -3682,6 +5797,21 @@
           <t>29 EKİM MAHALLESİ ATATÜRK CAD. NO:239/ZH  BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -3705,6 +5835,21 @@
           <t>29 EKİM MAHALLESİ ATATÜRK CAD.  NO: 239 G/101 BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -3728,6 +5873,21 @@
           <t>İSKELE MAHALLESİ HALİL ALTUN CADDESİ NO:23/A  AKVARYUM SİTESİ KARABURUN       / İZMİR</t>
         </is>
       </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -3751,6 +5911,21 @@
           <t xml:space="preserve"> TEPECİK MAHALLESİ KUŞADASI CAD. NO: 77 A/ SEFERİHİSAR/İZMİR  / </t>
         </is>
       </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -3774,6 +5949,21 @@
           <t>REİSDERE MAHALLESİ 6001 SOK.  NO: 18A ÇEŞME           / İZMİR</t>
         </is>
       </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -3797,6 +5987,21 @@
           <t xml:space="preserve"> ÖRNEKKÖY MAH. 1001 SK.  NO: 19  İÇ KAPI NO: 4 KEMALPAŞA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -3820,6 +6025,21 @@
           <t xml:space="preserve"> ADALET MAHALLESİ MANAS BLV.  NO: 47 B/2601  BAYRAKLI/İZMİR  / </t>
         </is>
       </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -3843,6 +6063,21 @@
           <t xml:space="preserve"> 29 EKİM MAHALLESİ ATATÜRK CAD.  NO: 239 P/43  BUCA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -3866,6 +6101,21 @@
           <t>SEKİZ EYLÜL MAHALLESİ 111 SOKAK NO: 13  İÇ KAPI NO: 1 KEMALPAŞA       / İZMİR</t>
         </is>
       </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -3889,6 +6139,21 @@
           <t xml:space="preserve"> 29 EKİM MAHALLESİ ATATÜRK CAD.  NO: 239 G/82  BUCA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -3912,6 +6177,21 @@
           <t>29 EKİM MAHALLESİ ATATÜRK CAD. NO:239/G76  KAYNAKLAR BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -3935,6 +6215,21 @@
           <t xml:space="preserve"> TEPEKULE MAH. 2084/7 SK. SEYHANKENT SİTESİ DİLARA BLOK  NO: 17B BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -3958,6 +6253,21 @@
           <t xml:space="preserve"> KAZIMDİRİK MAH. 296/2 SK.  NO: 33 BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -3981,6 +6291,21 @@
           <t xml:space="preserve"> ÜMİT MAH. 1411/4 SK.  NO: 15E BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -4004,6 +6329,21 @@
           <t xml:space="preserve"> ATATÜRK MAHALLESİ İSTİKBAL CAD.  NO: 165/1  GÜZELBAHÇE/İZMİR  / </t>
         </is>
       </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -4027,6 +6367,21 @@
           <t xml:space="preserve"> 29 EKİM MAH. ATATÜRK CAD. NO: 239G İÇ KAPI NO: 90 BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -4050,6 +6405,21 @@
           <t xml:space="preserve"> 29 EKİM ATATÜRK   NO:239-G/88 BUCA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -4073,6 +6443,21 @@
           <t xml:space="preserve"> MİMAR SİNAN MAH. 1394 SK. CENK NO: 16D İÇ KAPI NO: 16D KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -4096,6 +6481,21 @@
           <t>29 EKİM MAHALLESİ ATATÜRK CAD. NO:239/V15  KAYNAKLAR BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -4119,6 +6519,21 @@
           <t>YENİ MAHALLESİ ZAFER CAD. NO:26  URLA            / İZMİR</t>
         </is>
       </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -4142,6 +6557,21 @@
           <t>ATIFBEY MAHALLESİ 2. NO:14/A  B BLOK Apt. GAZİEMİR        / İZMİR</t>
         </is>
       </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -4165,6 +6595,21 @@
           <t>MERİÇ MAHALLESİ KEMALPAŞA CAD. NO:46  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -4188,6 +6633,21 @@
           <t>BAHRİYE ÜÇOK MAHALLESİ 1762 SK.  NO: 9  İÇ KAPI NO: 1 KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -4211,6 +6671,21 @@
           <t>GÜVENDİK MAHALLESİ 136 SK. NO:45/A/0  URLA            / İZMİR</t>
         </is>
       </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -4234,6 +6709,21 @@
           <t xml:space="preserve"> EĞİTİM MAH. ZİYA GÖKALP SK.  NO: 93  İÇ KAPI NO: 1 BALÇOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -4257,6 +6747,21 @@
           <t xml:space="preserve"> MERSİNLİ MAH. 2816 SK. NO: 86A KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -4280,6 +6785,21 @@
           <t>KONAK                     MAHALLESİ MİLLİ KÜTÜPHANE CADDESİ BARÇIN SPOR MAĞAZASI BLOK  NO: 27 İÇKAPINO:Z1 KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -4303,6 +6823,21 @@
           <t xml:space="preserve"> 16 SOKAK NO:2  ÇAMÖNÜ KÖYÜ MENDERES        / İZMİR</t>
         </is>
       </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -4326,6 +6861,21 @@
           <t>29 EKİM MAHALLESİ ATATÜRK CAD.  KAYNAKLAR BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -4349,6 +6899,21 @@
           <t>FEVZİ ÇAKMAK MAHALLESİ 4006 SOKAK NO:3  ALAÇATI ÇEŞME           / İZMİR</t>
         </is>
       </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -4372,6 +6937,21 @@
           <t xml:space="preserve"> ADALET MAHALLESİ MANAS BLV. FOLKART TOWERS APT.  NO: 47 B/2601  BAYRAKLI/İZMİR  / </t>
         </is>
       </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -4395,6 +6975,21 @@
           <t>29 EKİM MAHALLESİ ATATÜRK CAD. NO:239/V-16  BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -4418,6 +7013,21 @@
           <t>EGEMENLİK MAHALLESİ 6153 SK.  NO: 4S BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -4441,6 +7051,21 @@
           <t>YILDIRIM BEYAZIT MAHALLESİ YILDIRIM BEYAZIT CAD. NO: 50 A BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -4464,6 +7089,21 @@
           <t>MERSİNLİ                  MAHALLESİ 2823/1 SK. NO: 4  İÇ KAPI NO: Z12 KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -4487,6 +7127,21 @@
           <t xml:space="preserve"> ZAFER MAH. TURGUT ÖZAL CAD. NO: 20 BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -4510,6 +7165,21 @@
           <t xml:space="preserve"> HALİDE EDİP ADIVAR CAD. NO:88  ÜÇYOL KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -4533,6 +7203,21 @@
           <t>29 EKİM MAHALLESİ ATATÜRK CAD. NO: 239 V/32 BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -4556,6 +7241,21 @@
           <t xml:space="preserve"> 29 EKİM MAHALLESİ ATATÜRK CAD.  NO: 239 P/37  BUCA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -4579,6 +7279,21 @@
           <t>EGEMENLİK MAHALLESİ 6112 SOKAK TİCARET MERKEZİ Apt.  NO: 1/125   BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -4602,6 +7317,21 @@
           <t xml:space="preserve"> 6151 SOKAK NO:15  IŞIKKENT / İZMİR</t>
         </is>
       </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -4625,6 +7355,21 @@
           <t>29 EKİM MAHALLESİ ATATÜRK CAD. NO:239/E-15  KAYNAKLAR BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -4648,6 +7393,21 @@
           <t xml:space="preserve"> 29 EKİM ATATÜRK   NO:239V/22 BUCA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -4671,6 +7431,21 @@
           <t>ATATÜRK MAHALLESİ 2176 SK. NO:16  URLA            / İZMİR</t>
         </is>
       </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -4694,6 +7469,21 @@
           <t xml:space="preserve"> NO:20 YENİ HAL KAYNAKLAR KÖYÜ BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -4713,6 +7503,21 @@
         </is>
       </c>
       <c r="E187" t="inlineStr"/>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -4736,6 +7541,21 @@
           <t>KONAK MAHALLESİ CUMHURİYET BLV. KAPANİ İŞ MERKEZİ BLOK  NO: 36  İÇKAPI NO:711 KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -4759,6 +7579,21 @@
           <t>ÇİÇEKLİ MAHALLESİ PINARLI SK. NO: 24  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -4782,6 +7617,21 @@
           <t>29 EKİM MAHALLESİ ATATÜRK CAD. NO:239/19  BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -4805,6 +7655,21 @@
           <t>ADALET MAHALLESİ MANAS BLV.  FOLKART TOWERS Apt.  NO: 39/3208  BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -4828,6 +7693,21 @@
           <t xml:space="preserve"> EVKA 3 MAH. 121 SK. NO: 42/1G İÇ KAPI NO: 1 BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -4851,6 +7731,21 @@
           <t xml:space="preserve"> SOĞUKPINAR MAH. 300 SK.  NO: 12B KEMALPAŞA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -4874,6 +7769,21 @@
           <t>DEVELİ MAHALLESİ ÇEVRE YOLU BLV. NO:195  MENDERES        / İZMİR</t>
         </is>
       </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -4897,6 +7807,21 @@
           <t>İÇMELER MAHALLESİ ESKİ URLA-İZMİR YOLU CAD. NO: 20 URLA            / İZMİR</t>
         </is>
       </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -4916,6 +7841,21 @@
         </is>
       </c>
       <c r="E196" t="inlineStr"/>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -4939,6 +7879,21 @@
           <t xml:space="preserve"> TURGUT REİS MAH. ŞEHİT NİHATBEY CAD.  NO: 115  İÇ KAPI NO: 10 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -4958,6 +7913,21 @@
         </is>
       </c>
       <c r="E198" t="inlineStr"/>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -4981,6 +7951,21 @@
           <t xml:space="preserve"> BOSTANLI MAH. DR. ZİYA ERTEMER SK.  NO: 5A KARŞIYAKA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -5004,6 +7989,21 @@
           <t>SELVİLİ MAHALLESİ 4019/5 SK. AFYON BLOK  NO: 4A KARABAĞLAR      / İZMİR</t>
         </is>
       </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -5027,6 +8027,21 @@
           <t xml:space="preserve"> İZMİR SEBZE VE MEYVE HALİ 50 NOLU SATIŞ YERİ KAYNAKLAR BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -5050,6 +8065,21 @@
           <t>KÜLTÜR                    MAHALLESİ MUSTAFA MÜNİR BİRSEL SK. NO: 4 /1/103 KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -5069,6 +8099,21 @@
         </is>
       </c>
       <c r="E203" t="inlineStr"/>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -5088,6 +8133,21 @@
         </is>
       </c>
       <c r="E204" t="inlineStr"/>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -5111,6 +8171,21 @@
           <t xml:space="preserve"> ADALET MAH. MANAS BUL. FOLKART TOWERS BLOK  NO: 47B  İÇ KAPI NO: 3509 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -5134,6 +8209,21 @@
           <t>MUSALLA MAHALLESİ PAFTA:28-H ADA:472 PARSEL:98 ÇEŞME           / İZMİR</t>
         </is>
       </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -5157,6 +8247,21 @@
           <t xml:space="preserve"> MİTHATPAŞA MAH. OVA YOLU SK.  NO: 48A MENDERES / İZMİR  / </t>
         </is>
       </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -5180,6 +8285,21 @@
           <t>GÜMÜLDÜR ATATÜRK MAHALLESİ GÜMÜLDÜR İZMİR CAD. NO:271  MENDERES        / İZMİR</t>
         </is>
       </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -5203,6 +8323,21 @@
           <t xml:space="preserve"> RAFET PAŞA MAH. 5178 SK. NO: 22 İÇ KAPI NO: 1 BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -5226,6 +8361,21 @@
           <t xml:space="preserve"> GÜRPINAR MAH. 7004/3 SK.  NO: 13/5 BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -5249,6 +8399,21 @@
           <t>TEPECİK                   MAHALLESİ 118 SOK. NO:1  SEFERİHİSAR     / İZMİR</t>
         </is>
       </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -5272,6 +8437,21 @@
           <t xml:space="preserve"> 29 EKİM MAH. ATATÜRK CAD. NO: 239E İÇ KAPI NO: 27 BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -5295,6 +8475,21 @@
           <t xml:space="preserve"> VALİ RAHMİ BEY MAH. FORBES SK. YILMAZ BLOK  NO: 123  İÇ KAPI NO: 7 BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -5318,6 +8513,21 @@
           <t xml:space="preserve"> GÜMÜLDÜR CUMHURİYET MAHALLESİ TEMELPAŞA CAD.  NO: 56 -2/-2  MENDERES/İZMİR  / </t>
         </is>
       </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
@@ -5341,6 +8551,21 @@
           <t xml:space="preserve"> NO:73 MERKEZ HAL KAYNAKLAR BUCA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -5364,6 +8589,21 @@
           <t xml:space="preserve"> SEBZE VE MEYVE HALİ NO:79 KAYNAKLAR BUCA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -5387,6 +8627,21 @@
           <t xml:space="preserve"> FİKRİ ALTAY MAHALLESİ ORDU BLV.  NO: 168 A  KARŞIYAKA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -5410,6 +8665,21 @@
           <t>2.İNÖNÜ                   MAHALLESİ ALTINVADİ CAD. NO: 99  İÇ KAPI NO: 16  NARLIDERE       / İZMİR</t>
         </is>
       </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -5433,6 +8703,21 @@
           <t xml:space="preserve"> GAZİ MAH. 26 SK. NO: 62 İÇ KAPI NO: 2 GAZİEMİR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -5456,6 +8741,21 @@
           <t>BALATÇIK                  MAHALLESİ 8914 SK. NO: 75 A ÇİĞLİ           / İZMİR</t>
         </is>
       </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -5479,6 +8779,21 @@
           <t xml:space="preserve"> MİTHATPAŞA CADDESI NO:103 TUĞSUZ SİTESİ B BLOK KAT:1 DAİRE:2 BALÇOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -5502,6 +8817,21 @@
           <t xml:space="preserve"> 1338 SOKAK NO:1/204  ÇANKAYA KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -5525,6 +8855,21 @@
           <t xml:space="preserve"> CUMHURİYET MAH. KARAKOÇ CAD.  NO: 84 SEFERİHİSAR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -5548,6 +8893,21 @@
           <t xml:space="preserve"> HÜRRİYET MAHALLESİ 1087 SK.  NO: 5 /A//A  GAZİEMİR/İZMİR  / </t>
         </is>
       </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -5571,6 +8931,21 @@
           <t xml:space="preserve"> AKDENİZ MAH. 1353 SK. TANER İŞHANI NO: 1 İÇ KAPI NO: 608 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -5594,6 +8969,21 @@
           <t xml:space="preserve"> GAZİOSMANPAŞA BULVARI NO:10  KAT:3 ALSANCAK / İZMİR</t>
         </is>
       </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -5617,6 +9007,21 @@
           <t>29 EKİM MAHALLESİ ATATÜRK CAD. NO:239/E-25  BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -5640,6 +9045,21 @@
           <t xml:space="preserve"> İZMİR-ANKARA         NO:368/A/ KEMALPAŞA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -5663,6 +9083,21 @@
           <t xml:space="preserve"> GAZİ MAHALLESİ 28/30 SK. ZİRAAT BANKASI APT.  NO: 18/1  GAZİEMİR/İZMİR  / </t>
         </is>
       </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -5686,6 +9121,21 @@
           <t>ADALET MAHALLESİ MANAS BLV. NO:39/3408  BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -5709,6 +9159,21 @@
           <t xml:space="preserve"> 1869 SOKAK NO:11/A  KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
@@ -5732,6 +9197,21 @@
           <t>HUZUR                     MAHALLESİ AÇELYAM SOKAK A BLOK  NO: 7  İÇ KAPI NO: 10 NARLIDERE       / İZMİR</t>
         </is>
       </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -5755,6 +9235,21 @@
           <t>ÖRNEKKÖY                  MAHALLESİ ÖRNEKKÖY (KÜME EVLER) NO:24/1  KEMALPAŞA       / İZMİR</t>
         </is>
       </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -5778,6 +9273,21 @@
           <t>29 EKİM MAHALLESİ ATATÜRK CAD. NO:239 P/52 BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -5801,6 +9311,21 @@
           <t xml:space="preserve"> YENİKALE MAH. FIRAT SK.  NO: 2  İÇ KAPI NO: 3 NARLIDERE / İZMİR  / </t>
         </is>
       </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
@@ -5824,6 +9349,21 @@
           <t>29 EKİM MAHALLESİ ATATÜRK CAD. NO: 239 C/12   BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -5847,6 +9387,21 @@
           <t xml:space="preserve"> KONAK MAH. 859 SK. SARAY İŞHANI BLOK  NO: 5  İÇ KAPI NO: 506 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -5870,6 +9425,21 @@
           <t xml:space="preserve"> ALSANCAK MAH. KIBRIS ŞEHİTLERİ CAD. İŞÇİMENLER İŞ MERKEZİ NO: 146 İÇ KAPI NO: 9 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -5893,6 +9463,21 @@
           <t>29 EKİM MAHALLESİ ATATÜRK CAD. NO:239  BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -5916,6 +9501,21 @@
           <t xml:space="preserve"> AKÇAY CD. NO:64/2 GAZİEMİR/İZMİR  / </t>
         </is>
       </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
@@ -5939,6 +9539,21 @@
           <t>NARLI                     MAHALLESİ ŞENCAN SK. PELİN BLOK  NO: 15A  NARLIDERE       / İZMİR</t>
         </is>
       </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
@@ -5962,6 +9577,21 @@
           <t xml:space="preserve"> ÇAMÖNÜ MAH. 17/1 SK. NO: 25/1 MENDERES / İZMİR  / </t>
         </is>
       </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
@@ -5985,6 +9615,21 @@
           <t xml:space="preserve"> 29 EKİM MAHALLESİ ATATÜRK CAD.  NO: 239 P/35  BUCA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
@@ -6008,6 +9653,21 @@
           <t>TELEFERİK MAHALLESİ AKÇAKAYA (KÜME EVLER) H.KABAKCI Apt.  NO: 19/1 BALÇOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
@@ -6027,6 +9687,21 @@
         </is>
       </c>
       <c r="E245" t="inlineStr"/>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -6050,6 +9725,21 @@
           <t xml:space="preserve"> MEVYE VE SEBZE HALİ  NO: 60 KAYNAKLAR BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
@@ -6069,6 +9759,21 @@
         </is>
       </c>
       <c r="E247" t="inlineStr"/>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
@@ -6092,6 +9797,21 @@
           <t xml:space="preserve"> UĞUR MUMCU MAH. 8790/11 SK. NO: 2 ÇİĞLİ / İZMİR  / </t>
         </is>
       </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
@@ -6115,6 +9835,21 @@
           <t>29 EKİM MAHALLESİ ATATÜRK CAD.  NO: 239 G/105 BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
@@ -6138,6 +9873,21 @@
           <t xml:space="preserve"> 5639 SOKAK NO:3/A  ÇAMDİBİ BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
@@ -6161,6 +9911,21 @@
           <t xml:space="preserve"> 29 EKİM MAHALLESİ ATATÜRK CAD.  NO: 239 P/41  BUCA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
@@ -6184,6 +9949,21 @@
           <t xml:space="preserve"> 1479 SOKAK NO:20/10  ALSANCAK / İZMİR</t>
         </is>
       </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
@@ -6207,6 +9987,21 @@
           <t xml:space="preserve"> NO:41 MEYVE SEBZE HALİ KAYNAKLAR BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
@@ -6230,6 +10025,21 @@
           <t xml:space="preserve"> NO:70 MERKEZ HAL KAYNAKLAR BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
@@ -6253,6 +10063,21 @@
           <t>MEHMET AKİF ERSOY         MAHALLESİ KİRAZLI CD. NO:134/1  KEMALPAŞA       / İZMİR</t>
         </is>
       </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
@@ -6276,6 +10101,21 @@
           <t>MEHMET AKİF ERSOY         MAHALLESİ KİRAZLI CD. NO: 132 A KEMALPAŞA       / İZMİR</t>
         </is>
       </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
@@ -6299,6 +10139,21 @@
           <t xml:space="preserve"> NALDÖKEN MAHALLESİ 1273/1 SK.  NO: 2 C  BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
@@ -6322,6 +10177,21 @@
           <t xml:space="preserve"> ERZENE MAH. GENÇLİK CAD. NO: 11 BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
@@ -6345,6 +10215,21 @@
           <t>YEŞİLOVA                  MAHALLESİ 4016 SOKAK  ATIFBEY SİTESİ 2 BLOK  NO: 8  İÇ KAPI NO: 19 BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
@@ -6368,6 +10253,21 @@
           <t xml:space="preserve"> 206/27 SK. NO:22/A  KAT:1 BUCA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
@@ -6391,6 +10291,21 @@
           <t xml:space="preserve"> DOKUZ EYLÜL MAH. 692 SK. NO: 16 GAZİEMİR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
@@ -6414,6 +10329,21 @@
           <t xml:space="preserve"> AHMETBEYLİ MAH. CLAROS BUL. NO: 506 MENDERES / İZMİR  / </t>
         </is>
       </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
@@ -6437,6 +10367,21 @@
           <t xml:space="preserve"> HACI İSA MAH. ZAFER CAD. NO: 4 URLA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
@@ -6460,6 +10405,21 @@
           <t xml:space="preserve">  KAZDERE MEVKİİ URLA            / İZMİR</t>
         </is>
       </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
@@ -6483,6 +10443,21 @@
           <t xml:space="preserve"> LİMANREİS MAH. MİTHATPAŞA CAD. NO: 606 NARLIDERE / İZMİR  / </t>
         </is>
       </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
@@ -6506,6 +10481,21 @@
           <t xml:space="preserve"> ZAFER MAH. TURGUT ÖZAL CAD. NO: 6 BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
@@ -6529,6 +10519,21 @@
           <t xml:space="preserve"> 29 EKİM MAH. ATATÜRK CAD.239 G/110 - 239 H/110A         NO:/ BUCA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
@@ -6552,6 +10557,21 @@
           <t xml:space="preserve"> ZAFER MAH. 2371 SK.  NO: 7 BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
@@ -6575,6 +10595,21 @@
           <t>PİRİ REİS                 MAHALLESİ 200 SOKAK  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
@@ -6598,6 +10633,21 @@
           <t xml:space="preserve"> FATİH MAH. 1191 SK. NO: 5/6 GAZİEMİR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G270" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
@@ -6621,6 +10671,21 @@
           <t>ATİLLA                    MAHALLESİ 464 SOKAK  NO: 73C  İÇ KAPI NO: C  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
@@ -6644,6 +10709,21 @@
           <t>CUMHURİYET                MAHALLESİ 6702 SK. NO:2  İÇ KAPI NO: 7  KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
@@ -6667,6 +10747,21 @@
           <t xml:space="preserve"> 29 EKİM MAHALLESİ ATATÜRK CAD. NO: 239 G/93 BUCA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H273" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
@@ -6690,6 +10785,21 @@
           <t xml:space="preserve"> ADALET MAH. 1593/13 SK.  NO: 26  İÇ KAPI NO: 1 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H274" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
@@ -6713,6 +10823,21 @@
           <t xml:space="preserve"> SALMAN MAH. ZEYTİNCİLER KÜME EVLERİ  NO: 95  İÇ KAPI NO: 1 KARABURUN / İZMİR  / </t>
         </is>
       </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H275" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
@@ -6736,6 +10861,21 @@
           <t xml:space="preserve"> KEMALPAŞA O.S.B. MAHALLESİ İZMİR ANKARA ASFALTI CD. NO:7-7/1  / </t>
         </is>
       </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H276" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
@@ -6759,6 +10899,21 @@
           <t xml:space="preserve"> ÇINARLI MAHALLESİ 1572 SK.  NO: 33/-  KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H277" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
@@ -6782,6 +10937,21 @@
           <t xml:space="preserve"> KAZIMDİRİK MAH. 369/2 SK.  NO: 1  İÇ KAPI NO: 93 BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
@@ -6805,6 +10975,21 @@
           <t>ATIFBEY                   MAHALLESİ 67 SOKAK NO: 33  İÇ KAPI NO: 32  GAZİEMİR        / İZMİR</t>
         </is>
       </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H279" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
@@ -6828,6 +11013,21 @@
           <t xml:space="preserve">  ÖRNEKKÖY KEMALPAŞA       / İZMİR</t>
         </is>
       </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H280" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
@@ -6851,6 +11051,21 @@
           <t>HIDIRLIK                  MAHALLESİ TUZLA CADDESI NO:135  SEFERİHİSAR     / İZMİR</t>
         </is>
       </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H281" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
@@ -6874,6 +11089,21 @@
           <t xml:space="preserve"> KONAK MAHALLESİ CUMHURİYET BLV. KONAK İŞHANI APT.  NO: 24/56  KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G282" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H282" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
@@ -6897,6 +11127,21 @@
           <t>KEMALPAŞA                 MAHALLESİ 7415 SOKAK NO: 1  İÇ KAPI NO: Z1 BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G283" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H283" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
@@ -6920,6 +11165,21 @@
           <t>ADALET MAHALLESİ ANADOLU CADDESİ NO:41/101 MEGAPOL TOWER BLOK   BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H284" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
@@ -6943,6 +11203,21 @@
           <t>MUSTAFA KEMAL MAHALLESİ 6753/1 SOKAK NO:2/7  DAİRE:14 KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G285" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H285" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
@@ -6966,6 +11241,21 @@
           <t xml:space="preserve"> YELKİ MAH. İNÖNÜ CAD.  NO: 28  İÇ KAPI NO: 3 GÜZELBAHÇE / İZMİR  / </t>
         </is>
       </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G286" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H286" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
@@ -6989,6 +11279,21 @@
           <t xml:space="preserve"> DOKUZ EYLÜL MAHALLESİ ÖNDER CAD.  NO: 38/205  GAZİEMİR/İZMİR  / </t>
         </is>
       </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H287" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
@@ -7012,6 +11317,21 @@
           <t xml:space="preserve"> ZAFER MAH. 2330 SK. NO: 6A BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H288" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
@@ -7035,6 +11355,21 @@
           <t xml:space="preserve"> 29 EKİM MAH. ATATÜRK CAD.  NO: 239G  İÇ KAPI NO: 77 BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G289" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H289" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
@@ -7058,6 +11393,21 @@
           <t xml:space="preserve"> ALSANCAK MAHALLESİ MAHMUT ESAT BOZKURT CAD. ERAY APT.  NO: 29 B  KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G290" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H290" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
@@ -7081,6 +11431,21 @@
           <t>ZAFER MAHALLESİ 2342 SK. NO:4  BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H291" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
@@ -7104,6 +11469,21 @@
           <t xml:space="preserve"> HALİT ZİYA BULVARI NO:72  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H292" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
@@ -7127,6 +11507,21 @@
           <t xml:space="preserve"> ZAFER MAH. TURGUT ÖZAL CAD. NO: 110 BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H293" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
@@ -7150,6 +11545,21 @@
           <t xml:space="preserve"> İHSAN ALYANAK MAH. 4972 SK.  NO: 21  İÇ KAPI NO: MÜSTAKİL KARABAĞLAR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H294" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
@@ -7173,6 +11583,21 @@
           <t xml:space="preserve"> ADALET MAH. MANAS BUL. NO: 39 İÇ KAPI NO: 2511 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H295" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
@@ -7196,6 +11621,21 @@
           <t xml:space="preserve"> ADALET MAH. MANAS BUL. FOLKART TOWERS NO: 47B İÇ KAPI NO: 2601 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H296" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
@@ -7219,6 +11659,21 @@
           <t xml:space="preserve"> 29 EKİM ATATÜRK   NO:239-P/59 BUCA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G297" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H297" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
@@ -7242,6 +11697,21 @@
           <t xml:space="preserve"> ATATÜRK CAD. NO:162  KAT:9 PASAPORT KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G298" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H298" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
@@ -7265,6 +11735,21 @@
           <t xml:space="preserve"> 29 EKİM MAH. ATATÜRK CAD. NO: 239P İÇ KAPI NO: 50 BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G299" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H299" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
@@ -7288,6 +11773,21 @@
           <t xml:space="preserve"> BAHÇELİEVLER MAHALLESİ 1853/3 SK.  NO: 2 B  KARŞIYAKA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H300" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
@@ -7311,6 +11811,21 @@
           <t xml:space="preserve"> 2325 SOKAK NO:9  BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G301" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H301" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
@@ -7334,6 +11849,21 @@
           <t xml:space="preserve"> 29 EKİM MAH. 2190 SK. NO: 13A BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G302" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H302" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
@@ -7357,6 +11887,21 @@
           <t xml:space="preserve"> BİNBAŞI REŞAT BEY MAHALLESİ  351/1 SOKAK  NO:14/A GAZİEMİR/İZMİR  / </t>
         </is>
       </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G303" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H303" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
@@ -7380,6 +11925,21 @@
           <t>BASIN SİTESİ MAHALLESİ 169 SOKAK NO:19/8  KARABAĞLAR      / İZMİR</t>
         </is>
       </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G304" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H304" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
@@ -7403,6 +11963,21 @@
           <t xml:space="preserve"> CUMHURİYET BULV. NO:36  KAT:6 DAİRE:601 KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G305" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H305" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
@@ -7426,6 +12001,21 @@
           <t xml:space="preserve"> ERZENE MAH. ANKARA CAD. EBİLTEM NO: 172/14 BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G306" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H306" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
@@ -7449,6 +12039,21 @@
           <t>İTOB ORGANİZE SANAYİ BÖLGESİ TEKELİ MAHALLESİ 10001 SOKAK NO:9  MENDERES        / İZMİR</t>
         </is>
       </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G307" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H307" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
@@ -7472,6 +12077,21 @@
           <t xml:space="preserve"> 29 EKİM MAH. ATATÜRK CAD.  NO: 239V  İÇ KAPI NO: 21 BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G308" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H308" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
@@ -7495,6 +12115,21 @@
           <t>29 EKİM MAHALLESİ ATATÜRK CAD. NO:239G/112-239H/112A KAYNAKLAR BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G309" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H309" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
@@ -7518,6 +12153,21 @@
           <t>29 EKİM MAHALLESİ ATATÜRK CAD. NO:239/G İÇ KAPI NO: 84 BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G310" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H310" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
@@ -7541,6 +12191,21 @@
           <t>29 EKİM MAHALLESİ ATATÜRK CAD. NO:239/E-23  BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G311" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H311" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
@@ -7564,6 +12229,21 @@
           <t>İNCİRALTI                 MAHALLESİ 8/9 SOKAK NO:58  BALÇOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G312" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H312" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
@@ -7587,6 +12267,21 @@
           <t>ALAÇATI MAHALLESİ 16032 SK. NO:81/B  ÇEŞME           / İZMİR</t>
         </is>
       </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G313" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H313" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
@@ -7610,6 +12305,21 @@
           <t xml:space="preserve"> NO:47  KUŞÇULAR MAH. 8034 SK URLA            / İZMİR</t>
         </is>
       </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G314" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H314" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
@@ -7629,6 +12339,21 @@
         </is>
       </c>
       <c r="E315" t="inlineStr"/>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G315" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H315" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
@@ -7652,6 +12377,21 @@
           <t>ALİ FUAT ERDEN MAH. MAHALLESİ 9799. SOKAK NO:20/2  KARABAĞLAR      / İZMİR</t>
         </is>
       </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G316" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H316" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
@@ -7675,6 +12415,21 @@
           <t>ADALET MAHALLESİ ANADOLU  CAD. MEGAPOL TOWER BLOK  NO: 41  İÇ KAPI NO: 101  BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G317" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H317" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
@@ -7698,6 +12453,21 @@
           <t>29 EKİM MAHALLESİ ATATÜRK CAD. NO:239/95  BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G318" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H318" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
@@ -7721,6 +12491,21 @@
           <t>MUSTAFA KEMAL MAHALLESİ BÜLENT ECEVİT CAD. NO:50/A/16 YÜKSEK VADİ EVLERİ Sit.   KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G319" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H319" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
@@ -7744,6 +12529,21 @@
           <t>KAHRAMANLAR MAHALLESİ 1427 SOKAK NO: 10A  İÇ KAPI NO: A KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G320" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H320" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
@@ -7767,6 +12567,21 @@
           <t>ÇINARLI                   MAHALLESİ OZAN ABAY CADDESİ NO:10/193  B Apt KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G321" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H321" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
@@ -7790,6 +12605,21 @@
           <t xml:space="preserve"> KAHRAMANDERE MAH. ATA CAD.  NO: 52  İÇ KAPI NO: 13 GÜZELBAHÇE / İZMİR  / </t>
         </is>
       </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G322" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H322" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
@@ -7813,6 +12643,21 @@
           <t xml:space="preserve"> MANSUROĞLU MAH. 1593/1 SK.  NO: 6  İÇ KAPI NO: 53 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G323" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H323" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
@@ -7836,6 +12681,21 @@
           <t>ADALET MAHALLESİ MANAS BULV. FOLKART TOWERS BLOK  NO: 47B  İÇ KAPI NO: 260 BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G324" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H324" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
@@ -7859,6 +12719,21 @@
           <t xml:space="preserve"> 29 EKİM ATATÜRK   NO:239 G/75 BUCA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G325" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H325" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
@@ -7882,6 +12757,21 @@
           <t xml:space="preserve"> MEHMET AKİF ERSOY  155  NO:5/1/B KEMALPAŞA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G326" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H326" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
@@ -7905,6 +12795,21 @@
           <t>ADALET MAHALLESİ ANADOLU CADDESİ NO: 41/1  İÇ KAPI NO: 703 BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G327" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H327" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
@@ -7928,6 +12833,21 @@
           <t>YALI MAHALLESİ MİTHATPAŞA CD. NO:110  GÜZELBAHÇE      / İZMİR</t>
         </is>
       </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G328" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H328" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
@@ -7951,6 +12871,21 @@
           <t xml:space="preserve"> ADALET MAHALLESİ MANAS BLV.  NO: 12 /2  BAYRAKLI/İZMİR  / </t>
         </is>
       </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G329" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H329" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
@@ -7974,6 +12909,21 @@
           <t xml:space="preserve"> NO:27  KAYNAKLAR BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G330" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H330" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
@@ -7997,6 +12947,21 @@
           <t xml:space="preserve"> ADALET MAH. MANAS BUL. FOLKART TOWERS NO: 47B İÇ KAPI NO: 2601 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G331" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H331" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
@@ -8020,6 +12985,21 @@
           <t>29 EKİM MAHALLESİ ATATÜRK CAD.  NO: 239G  İÇ KAPI NO: 87  BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G332" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H332" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
@@ -8043,6 +13023,21 @@
           <t xml:space="preserve"> MALTEPE MAHALLESİ 110 SK.  NO: 20/_  GÜZELBAHÇE/İZMİR  / </t>
         </is>
       </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G333" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H333" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
@@ -8066,6 +13061,21 @@
           <t>29 EKİM MAHALLESİ ATATÜRK CAD. NO: 239G  İÇ KAPI NO: 104 BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G334" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H334" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
@@ -8089,6 +13099,21 @@
           <t xml:space="preserve"> 29 EKİM ATATÜRK   NO:NO:239P/HAL NO:64  BUCA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G335" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H335" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
@@ -8112,6 +13137,21 @@
           <t xml:space="preserve"> CAMİKEBİR MAH.  50 SOK   NO:3A SEFERİHİSAR/İZMİR  / </t>
         </is>
       </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G336" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H336" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
@@ -8135,6 +13175,21 @@
           <t>GÜZELYURT MAHALLESİ 920 SOK. NO:50  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G337" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H337" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
@@ -8158,6 +13213,21 @@
           <t>29 EKİM MAHALLESİ ATATÜRK CAD. NO:239/V14  BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G338" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H338" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
@@ -8181,6 +13251,21 @@
           <t xml:space="preserve"> KİBAR MAH. 3777 SK.  NO: 4  İÇ KAPI NO: 3 KARABAĞLAR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G339" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H339" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
@@ -8204,6 +13289,21 @@
           <t>KORUTÜRK MAHALLESİ V. HÜSEYİN ÖĞÜTÇEN CAD.  DİKMEN Apt.  NO: 5 /A/7   BALÇOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G340" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H340" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
@@ -8227,6 +13327,21 @@
           <t xml:space="preserve"> YILDIZ MAH. AHMET PİRİŞTİNA BUL.  NO: 21  İÇ KAPI NO: 20 BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G341" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H341" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
@@ -8250,6 +13365,21 @@
           <t xml:space="preserve"> GAZİ OSMAN PAŞA BULVARI NO:9 ESEN HAN KAT:4 DAİRE:402 ÇANKAYA KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G342" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H342" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
@@ -8273,6 +13403,21 @@
           <t>YEŞİLOVA                  MAHALLESİ 4045 SOKAK NO: 48A BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G343" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H343" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
@@ -8296,6 +13441,21 @@
           <t xml:space="preserve"> 29 EKİM MAH. ATATÜRK CAD.  NO: 239P  İÇ KAPI NO: 38 BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G344" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H344" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
@@ -8319,6 +13479,21 @@
           <t>KUŞÇULAR MAHALLESİ 8012 SOKAK NO:15  URLA            / İZMİR</t>
         </is>
       </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G345" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H345" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
@@ -8342,6 +13517,21 @@
           <t>29 EKİM MAHALLESİ ATATÜRK CAD. NO:239/V-33  BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G346" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H346" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
@@ -8365,6 +13555,21 @@
           <t xml:space="preserve"> ÜNIVERSITE CADDESI NO:66  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G347" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H347" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
@@ -8388,6 +13593,21 @@
           <t xml:space="preserve"> YİĞİTLER MAH. YİĞİTLER YOLU KÜME EVLERİ  18372856 SİTESİ  NO: 254  İÇ KAPI NO: 1 KEMALPAŞA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G348" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H348" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
@@ -8411,6 +13631,21 @@
           <t xml:space="preserve"> HIDIRLIK MAH. 78/2 SK. NO: 7H SEFERİHİSAR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G349" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H349" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
@@ -8434,6 +13669,21 @@
           <t xml:space="preserve"> HALKAPINAR MAH. 1203/11 SK. K.HASAN ATLI İŞMERK. BLOK  NO: 4  İÇ KAPI NO: 630 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G350" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H350" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
@@ -8457,6 +13707,21 @@
           <t xml:space="preserve"> ATATÜRK CD.  ALSANCAK / İZMİR</t>
         </is>
       </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G351" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H351" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
@@ -8480,6 +13745,21 @@
           <t xml:space="preserve"> DONANMACI  1721  NO:4/102 KARŞIYAKA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G352" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H352" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
@@ -8503,6 +13783,21 @@
           <t>YERALTI MAHALLESİ İNCİRLİ KÜME EVLERİ NO: 103 URLA            / İZMİR</t>
         </is>
       </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G353" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H353" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
@@ -8526,6 +13821,21 @@
           <t>ERGENE MAHALLESİ MUSTAFA KEMAL CAD. ÇELİK Sit. B Apt.  NO: 20 /1/5   BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G354" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H354" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
@@ -8549,6 +13859,21 @@
           <t xml:space="preserve"> MEHMET AKİF ERSOY MAH. DR. ALİ KARAMAN CAD.  NO: 6A KEMALPAŞA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G355" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H355" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
@@ -8572,6 +13897,21 @@
           <t>İÇMELER MAHALLESİ ESKİ URLA-İZMİR YOLU CAD. NO: 36  İÇ KAPI NO: 1  URLA            / İZMİR</t>
         </is>
       </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G356" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H356" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
@@ -8595,6 +13935,21 @@
           <t xml:space="preserve"> İSMET KAPTAN MAH. ŞEHİT NEVRES BUL. DEREN PLAZA NO: 10 İÇ KAPI NO: 11 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G357" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H357" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
@@ -8618,6 +13973,21 @@
           <t xml:space="preserve"> ZEYTİNLER MAH. GAZİ MUSTAFA KEMAL CAD. NO: 35A URLA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G358" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H358" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
@@ -8641,6 +14011,21 @@
           <t>CUMHURİYET                MAHALLESİ İZMİR ANKARA ASFALTI 35. KM NO:200/A  KEMALPAŞA       / İZMİR</t>
         </is>
       </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G359" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H359" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
@@ -8664,6 +14049,21 @@
           <t xml:space="preserve"> MERKEZ HAL NO:74 KAYNAKLAR BUCA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G360" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H360" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
@@ -8687,6 +14087,21 @@
           <t>ADALET MAHALLESİ MANAS BLV. FOLKART TOWERS BLOK NO:47B  İÇ KAPI NO:2601 BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G361" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H361" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
@@ -8710,6 +14125,21 @@
           <t xml:space="preserve"> YUKARIKIZILCA MERKEZ KEMALPAŞA YOLU   NO:NO:37/1 KEMALPAŞA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G362" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H362" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
@@ -8733,6 +14163,21 @@
           <t>ZAFER MAHALLESİ 2360 SK. NO:49  BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G363" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H363" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
@@ -8756,6 +14201,21 @@
           <t>HALKAPINAR                MAHALLESİ 1082 SOKAK NO:3  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G364" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H364" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
@@ -8779,6 +14239,21 @@
           <t xml:space="preserve"> MEHMET AKİF ERSOY MAH. SAYRA&amp;ÇINAR KÜME EVLERİ NO: 2 KEMALPAŞA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G365" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H365" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
@@ -8802,6 +14277,21 @@
           <t>29 EKİM MAHALLESİ ATATÜRK CAD. NO:239/P  DAİRE:46 BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G366" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H366" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
@@ -8825,6 +14315,21 @@
           <t xml:space="preserve"> GÜRPINAR MAHALLESİ 7232/8 SK. AY-KOOP SİT.  NO: 39 A  BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G367" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H367" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
@@ -8848,6 +14353,21 @@
           <t xml:space="preserve"> CAMİKEBİR MAH. 52 SK.  NO: 2  İÇ KAPI NO: 101 SEFERİHİSAR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G368" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H368" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
@@ -8871,6 +14391,21 @@
           <t>BAHRİYE ÜÇOK MAHALLESİ 1827 SK. NO:11/A GÜRAY BLOK   KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G369" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H369" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
@@ -8894,6 +14429,21 @@
           <t>29 EKİM MAHALLESİ ATATÜRK CAD. NO: 239 ZL  BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G370" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H370" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
@@ -8917,6 +14467,21 @@
           <t xml:space="preserve"> PAYAMLI DOĞANBEY KÖYÜ SEFERİHİSAR     / İZMİR</t>
         </is>
       </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G371" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H371" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
@@ -8940,6 +14505,21 @@
           <t>KURUÇEŞME                 MAHALLESİ 205/17 SK.  KESKİN BLOK  NO: 31A BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G372" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H372" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
@@ -8963,6 +14543,21 @@
           <t xml:space="preserve"> ALAYBEY MAH. ŞEHİT ASIM AKSOY CAD. AKTAN NO: 47A KARŞIYAKA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G373" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H373" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
@@ -8986,6 +14581,21 @@
           <t xml:space="preserve"> BALATÇIK MAH. 8788/10 SK. B-BLOK NO: 5D ÇİĞLİ / İZMİR  / </t>
         </is>
       </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G374" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H374" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
@@ -9009,6 +14619,21 @@
           <t xml:space="preserve"> KEMALPAŞA CD. NO:15  URLA            / İZMİR</t>
         </is>
       </c>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G375" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H375" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
@@ -9032,6 +14657,21 @@
           <t>BEYLER MAHALLESİ NO:46  SARILAR KÖYÜ KEMALPAŞA       / İZMİR</t>
         </is>
       </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G376" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H376" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
@@ -9055,6 +14695,21 @@
           <t>29 EKİM MAHALLESİ ATATÜRK CAD. NO:239/P63  BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F377" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G377" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H377" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
@@ -9078,6 +14733,21 @@
           <t xml:space="preserve"> KAVAKLIDERE MAH. KAVAK SK.  NO: 2 BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G378" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H378" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
@@ -9101,6 +14771,21 @@
           <t>MANSUROĞLU MAHALLESİ 286/2  SOK. NO: 2/15  BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G379" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H379" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
@@ -9124,6 +14809,21 @@
           <t>YAYLACIK                  MAHALLESİ BAŞARI CAD. NO:134/1  BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F380" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G380" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H380" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
@@ -9147,6 +14847,21 @@
           <t xml:space="preserve"> NO:11 MEYVE SEBZE HALİ KAYNAKLAR KÖYÜ BUCA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G381" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H381" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
@@ -9170,6 +14885,21 @@
           <t xml:space="preserve"> ADALET MAH. MANAS BUL. FOLKART TOWERS NO: 47B İÇ KAPI NO: 2601 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F382" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G382" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H382" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
@@ -9193,6 +14923,21 @@
           <t xml:space="preserve"> MEHMET ALİ AKMAN MAHALLESİ 18/1 SOKAK NO:2/14 KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F383" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G383" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H383" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
@@ -9216,6 +14961,21 @@
           <t>ÇİLE MAHALLESİ 7457 SK. NO:14/1  MENDERES        / İZMİR</t>
         </is>
       </c>
+      <c r="F384" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G384" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H384" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
@@ -9239,6 +14999,21 @@
           <t xml:space="preserve"> ÇINARLI MAH. 1572 SK.  NO: 33 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F385" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G385" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H385" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
@@ -9262,6 +15037,21 @@
           <t xml:space="preserve"> 29 EKİM MAH. ATATÜRK CAD.  NO: 239P  İÇ KAPI NO: 49 BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F386" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G386" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H386" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
@@ -9285,6 +15075,21 @@
           <t xml:space="preserve"> GÜRPINAR  7236  NO:54/A BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F387" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G387" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H387" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
@@ -9308,6 +15113,21 @@
           <t xml:space="preserve"> 29 EKİM MAHALLESİ ATATÜRK CAD. NO: 239 P/68 BUCA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G388" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H388" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
@@ -9331,6 +15151,21 @@
           <t>ADALET MAHALLESİ 1586/7  SOK. NO: 2  İÇ KAPI NO: 1 BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F389" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G389" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H389" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
@@ -9354,6 +15189,21 @@
           <t xml:space="preserve"> BALATÇIK MAH. 8900 SK.  NO: 14A ÇİĞLİ / İZMİR  / </t>
         </is>
       </c>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G390" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H390" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
@@ -9377,6 +15227,21 @@
           <t xml:space="preserve"> ADALET MAH. MANAS BUL. FOLKART TOWERS NO: 39 İÇ KAPI NO: 3201 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F391" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G391" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H391" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
@@ -9400,6 +15265,21 @@
           <t>ESENTEPE MAHALLESİ 14 SK. NO:103  KARABAĞLAR      / İZMİR</t>
         </is>
       </c>
+      <c r="F392" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G392" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H392" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
@@ -9423,6 +15303,21 @@
           <t xml:space="preserve"> 10006/1 SOK. NO:10/B  A.O.S.B. ÇİĞLİ/İZMİR  / </t>
         </is>
       </c>
+      <c r="F393" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G393" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H393" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
@@ -9446,6 +15341,21 @@
           <t>ALSANCAK MAHALLESİ 1479 SOKAK NO:16/2 KENET SİTESİ Apt.  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F394" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G394" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H394" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
@@ -9469,6 +15379,21 @@
           <t xml:space="preserve"> EGEMENLİK MAHALLESİ 6153 SK.  NO: 4 S/0  BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F395" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G395" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H395" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
@@ -9492,6 +15417,21 @@
           <t xml:space="preserve"> 1471 SOKAK NO:55/3  ALSANCAK KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F396" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G396" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H396" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
@@ -9511,6 +15451,21 @@
         </is>
       </c>
       <c r="E397" t="inlineStr"/>
+      <c r="F397" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G397" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H397" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
@@ -9530,6 +15485,21 @@
         </is>
       </c>
       <c r="E398" t="inlineStr"/>
+      <c r="F398" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G398" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H398" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
@@ -9553,6 +15523,21 @@
           <t xml:space="preserve"> 29 EKİM MAHALLESİ ATATÜRK CAD.  NO: 239 P/47  BUCA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F399" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G399" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H399" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
@@ -9576,6 +15561,21 @@
           <t>29 EKİM MAHALLESİ ATATÜRK CAD. NO:239  BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F400" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G400" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H400" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
@@ -9599,6 +15599,21 @@
           <t xml:space="preserve"> NO:11  BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F401" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G401" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H401" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
@@ -9622,6 +15637,21 @@
           <t>KEMALPAŞA                 MAHALLESİ 7087/3 SOKAK NO:1/3  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F402" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G402" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H402" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
@@ -9645,6 +15675,21 @@
           <t>YERALTI MAHALLESİ İNCİRLİ KÜME EVLERİ NO:96/O  URLA            / İZMİR</t>
         </is>
       </c>
+      <c r="F403" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G403" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H403" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
@@ -9668,6 +15713,21 @@
           <t>GÜZELYALI MAHALLESİ MİTHATPAŞA CD. NO:917/12  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F404" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G404" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H404" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
@@ -9691,6 +15751,21 @@
           <t xml:space="preserve"> ZEYBEK MAH. SELİMİYE CAD. NO: 40A KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F405" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G405" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H405" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
@@ -9714,6 +15789,21 @@
           <t>DUMLUPINAR                MAHALLESİ 90 SK. NO:7/3  BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F406" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G406" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H406" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
@@ -9737,6 +15827,21 @@
           <t>CÜNEYTBEY MAHALLESİ İBRAHİM TURAN CAD. NO: 8  İÇ KAPI NO: 2  MENDERES        / İZMİR</t>
         </is>
       </c>
+      <c r="F407" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G407" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H407" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
@@ -9760,6 +15865,21 @@
           <t>GÖKSU                     MAHALLESİ 679 SK. NO: 23  İÇ KAPI NO: 1 BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F408" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G408" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H408" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
@@ -9783,6 +15903,21 @@
           <t xml:space="preserve"> SOĞUKKUYU MAH. 1847/14 SK.  NO: 1  İÇ KAPI NO: 2 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F409" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G409" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H409" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
@@ -9806,6 +15941,21 @@
           <t xml:space="preserve"> NO:86 MERKEZ HAL KAYNAKLAR BUCA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F410" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G410" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H410" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
@@ -9829,6 +15979,21 @@
           <t xml:space="preserve"> BAHÇELİEVLER MAH. ŞEHİT MUSTAFA TUNÇBİLEK SK. ALİ AĞA BLOK  NO: 94A KARŞIYAKA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F411" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G411" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H411" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
@@ -9852,6 +16017,21 @@
           <t xml:space="preserve"> BAHARİYE MAH. 1690 SK.  NO: 148A KARŞIYAKA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F412" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G412" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H412" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
@@ -9875,6 +16055,21 @@
           <t xml:space="preserve"> KAZIMDİRİK MAH. ÜNİVERSİTE CAD. ÖZGÖRKEY NO: 66 BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F413" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G413" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H413" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
@@ -9898,6 +16093,21 @@
           <t xml:space="preserve">  KAYNAKLAR / İZMİR</t>
         </is>
       </c>
+      <c r="F414" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G414" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H414" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
@@ -9921,6 +16131,21 @@
           <t>KÜLTÜR                    MAHALLESİ CUMHURİYET BULVARI  B BLOK  NO: 141  İÇ KAPI NO: 1 KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F415" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G415" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H415" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
@@ -9944,6 +16169,21 @@
           <t xml:space="preserve"> ÇINARLI MAH. 1572 SK. NO: 33 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F416" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G416" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H416" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
@@ -9967,6 +16207,21 @@
           <t xml:space="preserve"> NO:57/3 VATAN MAHALLESİ 9100 SK. KARABAĞLAR      / İZMİR</t>
         </is>
       </c>
+      <c r="F417" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G417" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H417" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
@@ -9990,6 +16245,21 @@
           <t xml:space="preserve"> 29 EKİM MAH. ATATÜRK CAD.  NO: 239ZA BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F418" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G418" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H418" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
@@ -10013,6 +16283,21 @@
           <t xml:space="preserve"> KUŞÇULAR  8039/1  NO:18 URLA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F419" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G419" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H419" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
@@ -10036,6 +16321,21 @@
           <t xml:space="preserve"> 7093 SOKAK NO:18  PINARBAŞI BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F420" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G420" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H420" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
@@ -10059,6 +16359,21 @@
           <t xml:space="preserve"> İNCİRALTI MAH. İNCİRALTI CAD.  NO: 181 BALÇOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F421" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G421" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H421" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
@@ -10082,6 +16397,21 @@
           <t xml:space="preserve"> TEPECİK MAHALLESİ KUŞADASI CAD. NO: 77 D/ SEFERİHİSAR/İZMİR  / </t>
         </is>
       </c>
+      <c r="F422" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G422" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H422" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
@@ -10105,6 +16435,21 @@
           <t xml:space="preserve"> TEPECİK MAH. KUŞADASI CAD. UÇAK KARDEŞLER NO: 79 SEFERİHİSAR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F423" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G423" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H423" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
@@ -10128,6 +16473,21 @@
           <t xml:space="preserve"> NO:26  BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F424" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G424" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H424" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
@@ -10151,6 +16511,21 @@
           <t xml:space="preserve"> ULUCAK MUSTAFA KEMAL ATATÜRK MAH. MEHMET AKİF ERSOY CAD. NO: 31B KEMALPAŞA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F425" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G425" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H425" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
@@ -10174,6 +16549,21 @@
           <t>YENİMAHALLE               MAHALLESİ 8207 SK. NO: 11 A/0 ÇİĞLİ           / İZMİR</t>
         </is>
       </c>
+      <c r="F426" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G426" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H426" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
@@ -10197,6 +16587,21 @@
           <t>HALKAPINAR MAHALLESİ 1203/11 SOKAK NO: 5-7  İÇ KAPI NO: 175 KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F427" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G427" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H427" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
@@ -10220,6 +16625,21 @@
           <t>ATIFBEY                   MAHALLESİ FERİDUN PÖZÜT CAD. NO:40/A/A  GAZİEMİR        / İZMİR</t>
         </is>
       </c>
+      <c r="F428" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G428" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H428" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
@@ -10239,6 +16659,21 @@
         </is>
       </c>
       <c r="E429" t="inlineStr"/>
+      <c r="F429" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G429" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H429" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
@@ -10262,6 +16697,21 @@
           <t>DEDEBAŞI MAHALLESİ 1595 SK NO:225/405  KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F430" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G430" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H430" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
@@ -10285,6 +16735,21 @@
           <t>YALI                      MAHALLESİ 6323/1 SK. NO:18/E  KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F431" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G431" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H431" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
@@ -10308,6 +16773,21 @@
           <t xml:space="preserve"> İ.B.B.SEBZE MEYVE HALİ CBLOK PARSEL 78 KAYNAKLAR BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F432" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G432" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H432" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
@@ -10331,6 +16811,21 @@
           <t>29 EKİM MAHALLESİ ATATÜRK CAD. NO:239/V/12  BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F433" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G433" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H433" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
@@ -10354,6 +16849,21 @@
           <t xml:space="preserve"> KÜLTÜR MAH. MUSTAFA MÜNİR BİRSEL SK. KORDON İŞ HANI BLOK  NO: 4/1  İÇ KAPI NO: 202 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F434" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G434" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H434" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
@@ -10377,6 +16887,21 @@
           <t>29 EKİM MAHALLESİ ATATÜRK CAD. NO:239/V 24  BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F435" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G435" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H435" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
@@ -10400,6 +16925,21 @@
           <t>MANSUROĞLU MAHALLESİ 221  SOK. GÜLAY BLOK  NO: 22A  BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F436" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G436" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H436" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
@@ -10423,6 +16963,21 @@
           <t xml:space="preserve"> ADALET MAH. MANAS BUL. NO: 39 İÇ KAPI NO: 3408 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F437" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G437" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H437" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
@@ -10446,6 +17001,21 @@
           <t xml:space="preserve"> AĞAÇÇEŞMESİ MEVKİİ MAHALLESİ NO:9  DÜZCE KÖYÜ AĞAÇEŞMESİ MEVKİİ SEFERİHİSAR/İZMİR  / </t>
         </is>
       </c>
+      <c r="F438" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G438" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H438" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
@@ -10469,6 +17039,21 @@
           <t>SEKİZ EYLÜL MAHALLESİ İZMİR CAD.  NO: 103B  KEMALPAŞA       / İZMİR</t>
         </is>
       </c>
+      <c r="F439" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G439" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H439" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
@@ -10492,6 +17077,21 @@
           <t xml:space="preserve"> GONCALAR MAHALLESİ 6007/7 SK.  NO: 26 A  KARŞIYAKA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F440" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G440" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H440" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
@@ -10515,6 +17115,21 @@
           <t>İSMET KAPTAN              MAHALLESİ 1385 SOKAK YENİ ASIR  İŞ MERKEZİ BLOK  NO: 3 KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F441" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G441" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H441" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
@@ -10538,6 +17153,21 @@
           <t>KAHRAMANLAR               MAHALLESİ EMRE ÖZDESTAN SK. NO:17/65  DEREN İŞ MRK. BLOK  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F442" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G442" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H442" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
@@ -10561,6 +17191,21 @@
           <t xml:space="preserve"> YAKA MAH. ERDOĞAN KER CAD. NO: 77/71 URLA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F443" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G443" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H443" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="444">
       <c r="A444" t="n">
@@ -10584,6 +17229,21 @@
           <t>KÜÇÜK ÇİĞLİ               MAHALLESİ 8754/1 SOKAK NO:6/A  ÇİĞLİ ÇİĞLİ           / İZMİR</t>
         </is>
       </c>
+      <c r="F444" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G444" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H444" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
@@ -10607,6 +17267,21 @@
           <t xml:space="preserve"> 75.YIL CUMHURİYET MAHALLESİ NO:5  KARASULUK MEVKİİ KEMALPAŞA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F445" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G445" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H445" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="446">
       <c r="A446" t="n">
@@ -10630,6 +17305,21 @@
           <t>GÖKDERE MAHALLESİ CEYLAN SOKAK NO:9/B  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F446" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G446" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H446" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
@@ -10653,6 +17343,21 @@
           <t>CUMHURİYET MAHALLESİ TEMELPAŞA CAD. NO:40  GÜMÜLDÜR / İZMİR</t>
         </is>
       </c>
+      <c r="F447" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G447" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H447" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
@@ -10676,6 +17381,21 @@
           <t xml:space="preserve"> MENDERES MAH. 1114 SK.  NO: 6  İÇ KAPI NO: 2 GAZİEMİR        / İZMİR</t>
         </is>
       </c>
+      <c r="F448" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G448" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H448" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
@@ -10699,6 +17419,21 @@
           <t>ZAFER MAHALLESİ TURGUT ÖZAL CAD. NO: 110  BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F449" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G449" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H449" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="450">
       <c r="A450" t="n">
@@ -10722,6 +17457,21 @@
           <t xml:space="preserve"> 29 EKİM MAH. ATATÜRK CAD. NO: 239V İÇ KAPI NO: 13 BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F450" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G450" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H450" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="451">
       <c r="A451" t="n">
@@ -10745,6 +17495,21 @@
           <t>ALSANCAK MAHALLESİ 1473 SOKAK NO:5/608  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F451" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G451" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H451" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="452">
       <c r="A452" t="n">
@@ -10768,6 +17533,21 @@
           <t>TEPECİK                   MAHALLESİ KUŞADASI CAD. UÇAK KARDEŞLER BLOK  NO: 79A  SEFERİHİSAR     / İZMİR</t>
         </is>
       </c>
+      <c r="F452" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G452" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H452" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="453">
       <c r="A453" t="n">
@@ -10791,6 +17571,21 @@
           <t xml:space="preserve"> MERİÇ MAHALLESİ 5747/3 SK.  NO: 1/1  BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F453" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G453" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H453" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
@@ -10812,6 +17607,21 @@
       <c r="E454" t="inlineStr">
         <is>
           <t xml:space="preserve"> ÇORAKKAPI MAHALLESİ MÜRSELPAŞA BULV. NO:24 ASLANBEY İŞHANI KAT:7 DAİRE:14 KONAK/İZMİR  / </t>
+        </is>
+      </c>
+      <c r="F454" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G454" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H454" t="inlineStr">
+        <is>
+          <t>YAŞ SEBZE MEYVE GRUBU</t>
         </is>
       </c>
     </row>

--- a/Temizlenmiş Üye Bilgi Liste/Temizlenmiş Üye Bilgi Liste - 1. komite.xlsx
+++ b/Temizlenmiş Üye Bilgi Liste/Temizlenmiş Üye Bilgi Liste - 1. komite.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J365"/>
+  <dimension ref="A1:I365"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,11 +441,10 @@
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="62" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
-    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="24" customWidth="1" min="6" max="6"/>
     <col width="24" customWidth="1" min="7" max="7"/>
     <col width="129" customWidth="1" min="8" max="8"/>
     <col width="108" customWidth="1" min="9" max="9"/>
-    <col width="29" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -476,7 +475,7 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Meslek Grubu Sayı</t>
+          <t>Meslek Grubu Numarası</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -492,11 +491,6 @@
       <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Tescilli Adresi</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Meslek Grubu</t>
         </is>
       </c>
     </row>
@@ -542,11 +536,6 @@
           <t>HALKAPINAR MAHALLESİ 1490 SOKAK NO:3 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J2" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -590,11 +579,6 @@
           <t>MANSUROĞLU MAH. ANKARA CAD. NO: 81 İÇ KAPI NO: 148 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J3" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -638,11 +622,6 @@
           <t>ATATÜRK MAHALLESİ 2179 SK. NO: 2B URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -686,11 +665,6 @@
           <t>ADALET MAH. MANAS BUL. FOLKART TOWERS NO: 47B İÇ KAPI NO: 2601 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -734,11 +708,6 @@
           <t>GÜLBAHÇE MAHALLESİ 12080 NO:23 URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -782,11 +751,6 @@
           <t>TUNA MAHALLESİ ŞEHİT ÜSTEĞMEN AHMET KONUKSEVER SOKAK NO:3 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -830,11 +794,6 @@
           <t>ADALET MAH. 1586/3 SK. NO: 40 İÇ KAPI NO: 7 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -878,11 +837,6 @@
           <t>ÇINARLI MAH. ANKARA ASFALTI CAD. NO: 15 İÇ KAPI NO: 451 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -926,11 +880,6 @@
           <t>ADALET MAHALLESİ 1586/3 SOK. NO: 40 İÇ KAPI NO: 4 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -974,11 +923,6 @@
           <t>KAZIMDİRİK MAHALLESİ 367 SOK. NO: 3-5 İÇ KAPI NO: 414 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1022,11 +966,6 @@
           <t>EGEMENLİK MAH. 6106/15 SK. NO: 5A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1070,11 +1009,6 @@
           <t>ÇAMBEL MAH. ANKARA CAD. NO: 341/2 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1118,11 +1052,6 @@
           <t>KAZIMDİRİK MAHALLESİ 296/2 SOKAK NO:33 3.SANAYİ SİTESİ BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1166,11 +1095,6 @@
           <t>AOSB MAH. M. KEMAL ATATÜRK BUL. NO: 21 ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1214,11 +1138,6 @@
           <t>AKDENİZ MAHALLESİ 1329 SOKAK NO:20/603 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1262,11 +1181,6 @@
           <t>29 EKİM MAHALLESİ ATATÜRK CAD. KAYNAKLAR BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1310,11 +1224,6 @@
           <t>BASIN SİTESİ MAHALLESİ GAZETECİ HASAN TAHSİN CD. NURİYE APT. Apt. NO: 129 KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1358,11 +1267,6 @@
           <t>29 EKİM MAHALLESİ ATATÜRK CAD. NO:239/G103 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1406,11 +1310,6 @@
           <t>29 EKİM MAH. ATATÜRK CAD. NO: 239V İÇ KAPI NO: 26 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1454,11 +1353,6 @@
           <t>AKDENİZ MAH. GAZİ OSMAN PAŞA BUL. SÜREYYA REYENT İŞHAN NO: 30 İÇ KAPI NO: 608 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1502,11 +1396,6 @@
           <t>CELAL BAYAR MAHALLESİ 5152 SOK. NO:9 ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1550,11 +1439,6 @@
           <t>ÇINARLI MAH. ŞEHİT POLİS FETHİ SEKİN CAD. NO: 1 İÇ KAPI NO: 1101 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1598,11 +1482,6 @@
           <t>29 EKİM MAHALLESİ ATATÜRK CAD. NO: 239 G/100 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1646,11 +1525,6 @@
           <t>TEPECİK MAHALLESİ KUŞADASI CAD. NO: 79B SEFERİHİSAR / İZMİR</t>
         </is>
       </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1694,11 +1568,6 @@
           <t>İNÖNÜ MAHALLESİ 672 SK. NO: 114A BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1742,11 +1611,6 @@
           <t>OSMANGAZİ MAHALLESİ 592/1 SOK. NO:3 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1790,11 +1654,6 @@
           <t>TURABİYE MAH. NECAT HEPKON CAD. NO: 46 SEFERİHİSAR / İZMİR</t>
         </is>
       </c>
-      <c r="J28" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1838,11 +1697,6 @@
           <t>29 EKİM MAH. ATATÜRK CAD. NO: 239G İÇ KAPI NO: 101 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J29" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1886,11 +1740,6 @@
           <t>FATİH MAH. 1191 SK. NO: 5/6 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J30" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1934,11 +1783,6 @@
           <t>BOSTANLI MAHALLESİ 1779 SK. NO: 4 /1A KARŞIYAKA/İZMİR</t>
         </is>
       </c>
-      <c r="J31" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1982,11 +1826,6 @@
           <t>TORASAN MAH. PINARDERE SK. NO: 21 URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J32" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -2030,11 +1869,6 @@
           <t>İSMET KAPTAN MAH. ŞEHİT NEVRES BUL. DEREN PLAZA BLOK NO: 10 İÇ KAPI NO: 11 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J33" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -2078,11 +1912,6 @@
           <t>ZAFER MAHALLESİ 2347 SK. NO:11 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J34" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -2126,11 +1955,6 @@
           <t>KEMALPAŞA OSB MAH. İZMİR ANKARA CAD. NO: 67 İÇ KAPI NO: 1 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J35" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -2174,11 +1998,6 @@
           <t>YILDIZ MAH. 206/28 SK. NO: 3 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J36" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -2222,11 +2041,6 @@
           <t>ADALET MAH. MANAS BUL. FOLKART TOWERS NO: 39 İÇ KAPI NO: 3408 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J37" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -2270,11 +2084,6 @@
           <t>29 EKİM MAHALLESİ ATATÜRK CAD. NO: 239 P/48 BUCA/İZMİR</t>
         </is>
       </c>
-      <c r="J38" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -2318,11 +2127,6 @@
           <t>ÇOLAK İBRAHİM BEY MAHALLESİ FEVZİ ÇAKMAK CAD. NO:2 SEFERİHİSAR / İZMİR</t>
         </is>
       </c>
-      <c r="J39" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -2366,11 +2170,6 @@
           <t>ÇAMÖNÜ MAH. 21 SK. NO: 11 MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J40" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -2414,11 +2213,6 @@
           <t>ÇOLAK İBRAHİM BEY MAH. FEVZİ ÇAKMAK CAD. NO: 2 SEFERİHİSAR / İZMİR</t>
         </is>
       </c>
-      <c r="J41" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -2462,11 +2256,6 @@
           <t>KASIMPAŞA MAH. 201/1 SK. NO: 4C MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J42" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -2510,11 +2299,6 @@
           <t>SEKİZ EYLÜL MAHALLESİ 5012 SK. NO:226/1 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J43" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -2558,11 +2342,6 @@
           <t>SOĞUKPINAR MAHALLESİ ATATÜRK BULVARI NO: 12 İÇ KAPI NO: 9 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J44" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -2606,11 +2385,6 @@
           <t>İSMET KAPTAN MAHALLESİ 1367 SOKAK İSMET KAPTAN MAH. 1367 SK. YAZGILI İŞ MERKEZİ KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J45" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -2654,11 +2428,6 @@
           <t>YENİKALE MAHALLESİ İSMAİL CEM SOK. NO:4/19 NARLIDERE / İZMİR</t>
         </is>
       </c>
-      <c r="J46" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -2702,11 +2471,6 @@
           <t>EGEMENLİK MAHALLESİ 6108 SOKAK KARA NAK.SİTESİ F BLOK NO: 51/10B BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J47" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -2750,11 +2514,6 @@
           <t>KALABAK MAH. 3031 SK. NO: 4 URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J48" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -2798,11 +2557,6 @@
           <t>TEPECİK MAHALLESİ KAVAKDERE CD. NO:60 SEFERİHİSAR/İZMİR</t>
         </is>
       </c>
-      <c r="J49" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -2846,11 +2600,6 @@
           <t>29 EKİM MAHALLESİ ATATÜRK CAD. NO: 239P İÇ KAPI NO: 44 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J50" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -2894,11 +2643,6 @@
           <t>İSMET KAPTAN MAH. 1369 SK. TANAÇAN BLOK NO: 40 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J51" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -2942,11 +2686,6 @@
           <t>29 EKİM MAH. ATATÜRK CAD. NO: 239V İÇ KAPI NO: 8 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J52" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -2990,11 +2729,6 @@
           <t>29 EKİM MAH. ATATÜRK CAD. NO: 239C İÇ KAPI NO: 4 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J53" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -3038,11 +2772,6 @@
           <t>FATİH MAHALLESİ 1209 SOK. NO:2 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J54" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -3086,11 +2815,6 @@
           <t>29 EKİM MAHALLESİ ATATÜRK CAD. BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J55" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -3134,11 +2858,6 @@
           <t>MİMAR SİNAN MAHALLESİ MİMAR SİNAN CAD. NO:27/5 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J56" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -3182,11 +2901,6 @@
           <t>29 EKİM MAHALLESİ ATATÜRK CAD. NO:239G/112-239H/112A KAYNAKLAR BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J57" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -3230,11 +2944,6 @@
           <t>ADALET MAHALLESİ 1586/1 NO:NO:1/B/K:2 D:6 BAYRAKLI/İZMİR</t>
         </is>
       </c>
-      <c r="J58" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -3278,11 +2987,6 @@
           <t>KAZIMDİRİK MAHALLESİ 296/2 SOKAK NO:33 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J59" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -3326,11 +3030,6 @@
           <t>HÜRRİYET MAHALLESİ AYDERESİ SULUK KÜME EVLERİ NO:4/B ARMUTLU KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J60" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -3374,11 +3073,6 @@
           <t>ADALET MAHALLESİ MANAS BULV. FOLKART TOWERS BLOK NO: 47B İÇ KAPI NO: 260 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J61" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -3422,11 +3116,6 @@
           <t>KÖYİÇİ MAHALLESİ ATATÜRK SK. NO:7 SALMAN KÖYÜ KARABURUN / İZMİR</t>
         </is>
       </c>
-      <c r="J62" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -3470,11 +3159,6 @@
           <t>29 EKİM MAHALLESİ ATATÜRK CAD. NO: 239 C/16 BUCA/İZMİR</t>
         </is>
       </c>
-      <c r="J63" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -3518,11 +3202,6 @@
           <t>FİKRİ ALTAY MAHALLESİ ANADOLU CADDESİ NO:541 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J64" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -3566,11 +3245,6 @@
           <t>AKDENİZ MAH. CUMHURİYET BUL. ERDEN İŞ HANI BLOK NO: 87 İÇ KAPI NO: 12 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J65" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -3614,11 +3288,6 @@
           <t>TORASAN MAHALLESİ PINARDERE SK. NO: 43/ URLA/İZMİR</t>
         </is>
       </c>
-      <c r="J66" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -3662,11 +3331,6 @@
           <t>ADALET MAHALLESİ MANAS BULVARI NO:47/B FOLKART TOWERS BLOK İÇ KAPI NO: 2601 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J67" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -3710,11 +3374,6 @@
           <t>YENİKENT MAHALLESİ EMEK SK. İZLEMEK-YAŞAM SİTESİ İZLEMEK-YAŞAM BLOK URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J68" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -3758,11 +3417,6 @@
           <t>HALKAPINAR MAH. 1203 SK. NO: 13 İÇ KAPI NO: 724 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J69" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -3806,11 +3460,6 @@
           <t>ADATEPE MAH. DOĞUŞ CAD. NO: 207AG İÇ KAPI NO: 1 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J70" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -3854,11 +3503,6 @@
           <t>İÇMELER MAHALLESİ 1154 SK. NO:10 URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J71" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -3902,11 +3546,6 @@
           <t>KÜLTÜR MAHALLESİ ŞEHİT NEVRES BULVARI NO:5/8-9 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J72" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
@@ -3950,11 +3589,6 @@
           <t>ADALET MAHALLESİ MANAS BLV. FOLKART TOWERS APT. NO: 47 B/2809 BAYRAKLI/İZMİR</t>
         </is>
       </c>
-      <c r="J73" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
@@ -3998,11 +3632,6 @@
           <t>GAZİ MAH. 28/25 NO:NO:11/A GAZİEMİR/İZMİR</t>
         </is>
       </c>
-      <c r="J74" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
@@ -4046,11 +3675,6 @@
           <t>ATATÜRK MAHALLESİ 29 EKİM CADDESİ NO: 239G İÇ KAPI NO: 107 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J75" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
@@ -4094,11 +3718,6 @@
           <t>MANSUROĞLU MAHALLESİ 286/2 SOK. NO:2/15 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J76" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
@@ -4142,11 +3761,6 @@
           <t>KÜLTÜR MAH. DR. MUSTAFA ENVER BEY CAD. BERKİ APT BLOK NO: 1/1 İÇ KAPI NO: 81 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J77" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
@@ -4190,11 +3804,6 @@
           <t>KOCATEPE MAH. 574/1 SK. NO: 4 İÇ KAPI NO: 5 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J78" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
@@ -4238,11 +3847,6 @@
           <t>KAZIM DİRİK MAHALLESİ 375 SOK. NO:18 KAT:2 DAİRE:205 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J79" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
@@ -4286,11 +3890,6 @@
           <t>TEPECİK MAHALLESİ NO:34 KUŞADASI YOLU ÜZERİ SEFERİHİSAR/İZMİR</t>
         </is>
       </c>
-      <c r="J80" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
@@ -4334,11 +3933,6 @@
           <t>İNÖNÜ MAHALLESİ 672/10 SK. NO:28/A BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J81" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
@@ -4382,11 +3976,6 @@
           <t>29 EKİM MAHALLESİ ATATÜRK CAD. NO: 239V İÇ KAPI NO: 18 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J82" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
@@ -4430,11 +4019,6 @@
           <t>29 EKİM MAHALLESİ ATATÜRK CAD. NO: 239 G/98 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J83" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
@@ -4478,11 +4062,6 @@
           <t>MANSUROĞLU MAHALLESİ 288/4 SOK. NO: 9/1 İÇ KAPI NO: 43 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J84" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
@@ -4526,11 +4105,6 @@
           <t>MANSUROĞLU MAH. 286/1 SK. NO: 1 İÇ KAPI NO: 215 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J85" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
@@ -4574,11 +4148,6 @@
           <t>İSMET KAPTAN MAHALLESİ 9 EYLÜL MEYDANI HÜDAVERDİ İŞ MERKEZİ BLOK NO: 3 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J86" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
@@ -4622,11 +4191,6 @@
           <t>YAYLACIK MAHALLESİ 178 SK. NO:10/10 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J87" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
@@ -4670,11 +4234,6 @@
           <t>BAHÇELİEVLER MAH. HALİDE EDİP ADIVAR CAD. NO: 14 İÇ KAPI NO: 15 KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J88" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
@@ -4718,11 +4277,6 @@
           <t>ÇOLAK İBRAHİM BEY MAH. FEVZİ ÇAKMAK CAD. NO: 2 SEFERİHİSAR / İZMİR</t>
         </is>
       </c>
-      <c r="J89" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
@@ -4766,11 +4320,6 @@
           <t>ADALET MAHALLESİ MANAS FOLKART TOWERS BLOK NO: 47B İÇ KAPI NO: 26 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J90" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
@@ -4814,11 +4363,6 @@
           <t>SARIYER MAH. COŞKUN KALE SK. NO: 100A KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J91" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
@@ -4862,11 +4406,6 @@
           <t>ADALET MAHALLESİ MANAS BLV. NO: 39 İÇ KAPI NO: 3408 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J92" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
@@ -4910,11 +4449,6 @@
           <t>AŞAĞIKIZILCA MAHALLESİ AŞAĞIKIZILCA OVA EVLERİ YOLU (KÜME EVLER) NO: 1/1A İÇ KAPI NO: 1 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J93" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
@@ -4958,11 +4492,6 @@
           <t>KAVAKLIDERE MAHALLESİ ÇITAK SOKAK NO:12/1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J94" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
@@ -5006,11 +4535,6 @@
           <t>GÖRECE CUMHURİYET MAH. CEMAL GÜRSEL BUL. NO: 8 MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J95" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
@@ -5054,11 +4578,6 @@
           <t>6219 SK. NO:11 GÜMÜLDÜR FEVZİ ÇAKMAK MAH. İÇ KAPI NO: 2 MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J96" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
@@ -5102,11 +4621,6 @@
           <t>ZAFER MAHALLESİ 2373 SOKAK NO:9 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J97" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
@@ -5150,11 +4664,6 @@
           <t>SELVİLİ MAHALLESİ 4139 SK. NO: 29 A/A KARABAĞLAR/İZMİR</t>
         </is>
       </c>
-      <c r="J98" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
@@ -5198,11 +4707,6 @@
           <t>SARILAR MAHALLESİ NO:177 SAZ MAH.YOLU KÜME EVLERİ 18738316 SİTESİ KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J99" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
@@ -5246,11 +4750,6 @@
           <t>YAKAKÖY MAH. POLİGON SK. NO: 38/1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J100" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
@@ -5294,11 +4793,6 @@
           <t>29 EKİM MAHALLESİ ATATÜRK CAD. NO: 239 P/54 BUCA/İZMİR</t>
         </is>
       </c>
-      <c r="J101" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
@@ -5342,11 +4836,6 @@
           <t>SEKİZ EYLÜL MAH. 113 SK. NO: 16 İÇ KAPI NO: 8 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J102" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
@@ -5390,11 +4879,6 @@
           <t>ÖZBEK MAHALLESİ 6217 SK. NO: 29 URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J103" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
@@ -5438,11 +4922,6 @@
           <t>29 EKİM MAH. ATATÜRK CAD. NO: 239C İÇ KAPI NO: 24 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J104" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
@@ -5486,11 +4965,6 @@
           <t>KAZIMDİRİK MAHALLESİ 161 SOKAK NO:11/D BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J105" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
@@ -5534,11 +5008,6 @@
           <t>29 EKİM MAHALLESİ ATATÜRK CAD. NO: 239 G/96 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J106" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
@@ -5582,11 +5051,6 @@
           <t>AKSOY MAHALLESİ 1746 SK. GÜLTEKİN Apt. NO: 4/2 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J107" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
@@ -5630,11 +5094,6 @@
           <t>SOĞUKPINAR MAHALLESİ SOĞUKPINAR (KÜME EVLER) NO:47 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J108" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
@@ -5678,11 +5137,6 @@
           <t>KAVAKLIDERE MAH. ÇITAK SK. NO: 12/1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J109" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
@@ -5726,11 +5180,6 @@
           <t>HALKAPINAR MAHALLESİ 1203/11 SOKAK K.HASAN ATLI İŞMERK. BLOK NO: 4/630 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J110" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
@@ -5774,11 +5223,6 @@
           <t>ONUR MAH. 7370 SK. NO: 15 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J111" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
@@ -5822,11 +5266,6 @@
           <t>KONAK MAHALLESİ ÇOBANOĞLU ZEKİ BEY CADDESİ NO:7/204 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J112" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
@@ -5870,11 +5309,6 @@
           <t>BAYRAKLI MAHALLESİ ORD. PROF. DR. EKREM AKURGAL SK. HAFİZE HANIM APT. NO: 85 A BAYRAKLI/İZMİR</t>
         </is>
       </c>
-      <c r="J113" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
@@ -5918,11 +5352,6 @@
           <t>29 EKİM MAHALLESİ ATATÜRK CAD. NO:239/C-12 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J114" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
@@ -5966,11 +5395,6 @@
           <t>29 EKİM MAHALLESİ ATATÜRK CAD. NO:239/ZH BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J115" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
@@ -6014,11 +5438,6 @@
           <t>29 EKİM MAHALLESİ ATATÜRK CAD. NO: 239 G/101 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J116" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
@@ -6062,11 +5481,6 @@
           <t>İSKELE MAHALLESİ HALİL ALTUN CADDESİ NO:23/A AKVARYUM SİTESİ KARABURUN / İZMİR</t>
         </is>
       </c>
-      <c r="J117" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
@@ -6110,11 +5524,6 @@
           <t>TEPECİK MAHALLESİ KUŞADASI CAD. NO: 77 A/ SEFERİHİSAR/İZMİR</t>
         </is>
       </c>
-      <c r="J118" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
@@ -6158,11 +5567,6 @@
           <t>REİSDERE MAHALLESİ 6001 SOK. NO: 18A ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J119" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
@@ -6206,11 +5610,6 @@
           <t>ÖRNEKKÖY MAH. 1001 SK. NO: 19 İÇ KAPI NO: 4 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J120" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
@@ -6254,11 +5653,6 @@
           <t>ADALET MAHALLESİ MANAS BLV. NO: 47 B/2601 BAYRAKLI/İZMİR</t>
         </is>
       </c>
-      <c r="J121" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
@@ -6302,11 +5696,6 @@
           <t>29 EKİM MAHALLESİ ATATÜRK CAD. NO: 239 P/43 BUCA/İZMİR</t>
         </is>
       </c>
-      <c r="J122" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
@@ -6350,11 +5739,6 @@
           <t>SEKİZ EYLÜL MAHALLESİ 111 SOKAK NO: 13 İÇ KAPI NO: 1 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J123" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
@@ -6398,11 +5782,6 @@
           <t>29 EKİM MAHALLESİ ATATÜRK CAD. NO: 239 G/82 BUCA/İZMİR</t>
         </is>
       </c>
-      <c r="J124" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
@@ -6446,11 +5825,6 @@
           <t>29 EKİM MAHALLESİ ATATÜRK CAD. NO:239/G76 KAYNAKLAR BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J125" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
@@ -6494,11 +5868,6 @@
           <t>TEPEKULE MAH. 2084/7 SK. SEYHANKENT SİTESİ DİLARA BLOK NO: 17B BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J126" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
@@ -6542,11 +5911,6 @@
           <t>KAZIMDİRİK MAH. 296/2 SK. NO: 33 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J127" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
@@ -6590,11 +5954,6 @@
           <t>ÜMİT MAH. 1411/4 SK. NO: 15E BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J128" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
@@ -6638,11 +5997,6 @@
           <t>ATATÜRK MAHALLESİ İSTİKBAL CAD. NO: 165/1 GÜZELBAHÇE/İZMİR</t>
         </is>
       </c>
-      <c r="J129" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
@@ -6686,11 +6040,6 @@
           <t>29 EKİM MAH. ATATÜRK CAD. NO: 239G İÇ KAPI NO: 90 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J130" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
@@ -6734,11 +6083,6 @@
           <t>MİMAR SİNAN MAH. 1394 SK. CENK NO: 16D İÇ KAPI NO: 16D KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J131" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
@@ -6782,11 +6126,6 @@
           <t>29 EKİM MAHALLESİ ATATÜRK CAD. NO:239/V15 KAYNAKLAR BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J132" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
@@ -6830,11 +6169,6 @@
           <t>YENİ MAHALLESİ ZAFER CAD. NO:26 URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J133" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
@@ -6878,11 +6212,6 @@
           <t>ATIFBEY MAHALLESİ 2. NO:14/A B BLOK Apt. GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J134" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
@@ -6926,11 +6255,6 @@
           <t>MERİÇ MAHALLESİ KEMALPAŞA CAD. NO:46 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J135" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
@@ -6974,11 +6298,6 @@
           <t>BAHRİYE ÜÇOK MAHALLESİ 1762 SK. NO: 9 İÇ KAPI NO: 1 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J136" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
@@ -7022,11 +6341,6 @@
           <t>GÜVENDİK MAHALLESİ 136 SK. NO:45/A/0 URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J137" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
@@ -7070,11 +6384,6 @@
           <t>EĞİTİM MAH. ZİYA GÖKALP SK. NO: 93 İÇ KAPI NO: 1 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J138" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
@@ -7118,11 +6427,6 @@
           <t>MERSİNLİ MAH. 2816 SK. NO: 86A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J139" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
@@ -7166,11 +6470,6 @@
           <t>KONAK MAHALLESİ MİLLİ KÜTÜPHANE CADDESİ BARÇIN SPOR MAĞAZASI BLOK NO: 27 İÇKAPINO:Z1 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J140" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
@@ -7214,11 +6513,6 @@
           <t>29 EKİM MAHALLESİ ATATÜRK CAD. KAYNAKLAR BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J141" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
@@ -7262,11 +6556,6 @@
           <t>FEVZİ ÇAKMAK MAHALLESİ 4006 SOKAK NO:3 ALAÇATI ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J142" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
@@ -7310,11 +6599,6 @@
           <t>ADALET MAHALLESİ MANAS BLV. FOLKART TOWERS APT. NO: 47 B/2601 BAYRAKLI/İZMİR</t>
         </is>
       </c>
-      <c r="J143" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
@@ -7358,11 +6642,6 @@
           <t>29 EKİM MAHALLESİ ATATÜRK CAD. NO:239/V-16 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J144" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
@@ -7406,11 +6685,6 @@
           <t>EGEMENLİK MAHALLESİ 6153 SK. NO: 4S BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J145" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
@@ -7454,11 +6728,6 @@
           <t>YILDIRIM BEYAZIT MAHALLESİ YILDIRIM BEYAZIT CAD. NO: 50 A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J146" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
@@ -7502,11 +6771,6 @@
           <t>MERSİNLİ MAHALLESİ 2823/1 SK. NO: 4 İÇ KAPI NO: Z12 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J147" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
@@ -7550,11 +6814,6 @@
           <t>ZAFER MAH. TURGUT ÖZAL CAD. NO: 20 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J148" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
@@ -7598,11 +6857,6 @@
           <t>29 EKİM MAHALLESİ ATATÜRK CAD. NO: 239 V/32 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J149" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
@@ -7646,11 +6900,6 @@
           <t>29 EKİM MAHALLESİ ATATÜRK CAD. NO: 239 P/37 BUCA/İZMİR</t>
         </is>
       </c>
-      <c r="J150" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
@@ -7694,11 +6943,6 @@
           <t>EGEMENLİK MAHALLESİ 6112 SOKAK TİCARET MERKEZİ Apt. NO: 1/125 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J151" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
@@ -7742,11 +6986,6 @@
           <t>29 EKİM MAHALLESİ ATATÜRK CAD. NO:239/E-15 KAYNAKLAR BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J152" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
@@ -7790,11 +7029,6 @@
           <t>ATATÜRK MAHALLESİ 2176 SK. NO:16 URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J153" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
@@ -7838,11 +7072,6 @@
           <t>KONAK MAHALLESİ CUMHURİYET BLV. KAPANİ İŞ MERKEZİ BLOK NO: 36 İÇKAPI NO:711 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J154" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
@@ -7886,11 +7115,6 @@
           <t>ÇİÇEKLİ MAHALLESİ PINARLI SK. NO: 24 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J155" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
@@ -7934,11 +7158,6 @@
           <t>29 EKİM MAHALLESİ ATATÜRK CAD. NO:239/19 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J156" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
@@ -7982,11 +7201,6 @@
           <t>ADALET MAHALLESİ MANAS BLV. FOLKART TOWERS Apt. NO: 39/3208 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J157" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
@@ -8030,11 +7244,6 @@
           <t>EVKA 3 MAH. 121 SK. NO: 42/1G İÇ KAPI NO: 1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J158" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
@@ -8078,11 +7287,6 @@
           <t>SOĞUKPINAR MAH. 300 SK. NO: 12B KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J159" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
@@ -8126,11 +7330,6 @@
           <t>DEVELİ MAHALLESİ ÇEVRE YOLU BLV. NO:195 MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J160" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
@@ -8174,11 +7373,6 @@
           <t>İÇMELER MAHALLESİ ESKİ URLA-İZMİR YOLU CAD. NO: 20 URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J161" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
@@ -8222,11 +7416,6 @@
           <t>TURGUT REİS MAH. ŞEHİT NİHATBEY CAD. NO: 115 İÇ KAPI NO: 10 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J162" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
@@ -8270,11 +7459,6 @@
           <t>BOSTANLI MAH. DR. ZİYA ERTEMER SK. NO: 5A KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J163" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
@@ -8318,11 +7502,6 @@
           <t>SELVİLİ MAHALLESİ 4019/5 SK. AFYON BLOK NO: 4A KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J164" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
@@ -8366,11 +7545,6 @@
           <t>KÜLTÜR MAHALLESİ MUSTAFA MÜNİR BİRSEL SK. NO: 4 /1/103 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J165" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
@@ -8414,11 +7588,6 @@
           <t>ADALET MAH. MANAS BUL. FOLKART TOWERS BLOK NO: 47B İÇ KAPI NO: 3509 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J166" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
@@ -8462,11 +7631,6 @@
           <t>MUSALLA MAHALLESİ PAFTA:28-H ADA:472 PARSEL:98 ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J167" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
@@ -8510,11 +7674,6 @@
           <t>MİTHATPAŞA MAH. OVA YOLU SK. NO: 48A MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J168" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
@@ -8558,11 +7717,6 @@
           <t>GÜMÜLDÜR ATATÜRK MAHALLESİ GÜMÜLDÜR İZMİR CAD. NO:271 MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J169" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
@@ -8606,11 +7760,6 @@
           <t>RAFET PAŞA MAH. 5178 SK. NO: 22 İÇ KAPI NO: 1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J170" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
@@ -8654,11 +7803,6 @@
           <t>GÜRPINAR MAH. 7004/3 SK. NO: 13/5 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J171" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
@@ -8702,11 +7846,6 @@
           <t>TEPECİK MAHALLESİ 118 SOK. NO:1 SEFERİHİSAR / İZMİR</t>
         </is>
       </c>
-      <c r="J172" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
@@ -8750,11 +7889,6 @@
           <t>29 EKİM MAH. ATATÜRK CAD. NO: 239E İÇ KAPI NO: 27 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J173" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
@@ -8798,11 +7932,6 @@
           <t>VALİ RAHMİ BEY MAH. FORBES SK. YILMAZ BLOK NO: 123 İÇ KAPI NO: 7 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J174" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
@@ -8846,11 +7975,6 @@
           <t>GÜMÜLDÜR CUMHURİYET MAHALLESİ TEMELPAŞA CAD. NO: 56 -2/-2 MENDERES/İZMİR</t>
         </is>
       </c>
-      <c r="J175" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
@@ -8894,11 +8018,6 @@
           <t>FİKRİ ALTAY MAHALLESİ ORDU BLV. NO: 168 A KARŞIYAKA/İZMİR</t>
         </is>
       </c>
-      <c r="J176" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
@@ -8942,11 +8061,6 @@
           <t>2.İNÖNÜ MAHALLESİ ALTINVADİ CAD. NO: 99 İÇ KAPI NO: 16 NARLIDERE / İZMİR</t>
         </is>
       </c>
-      <c r="J177" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
@@ -8990,11 +8104,6 @@
           <t>GAZİ MAH. 26 SK. NO: 62 İÇ KAPI NO: 2 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J178" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
@@ -9038,11 +8147,6 @@
           <t>BALATÇIK MAHALLESİ 8914 SK. NO: 75 A ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J179" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
@@ -9086,11 +8190,6 @@
           <t>CUMHURİYET MAH. KARAKOÇ CAD. NO: 84 SEFERİHİSAR / İZMİR</t>
         </is>
       </c>
-      <c r="J180" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
@@ -9134,11 +8233,6 @@
           <t>HÜRRİYET MAHALLESİ 1087 SK. NO: 5 /A//A GAZİEMİR/İZMİR</t>
         </is>
       </c>
-      <c r="J181" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
@@ -9182,11 +8276,6 @@
           <t>AKDENİZ MAH. 1353 SK. TANER İŞHANI NO: 1 İÇ KAPI NO: 608 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J182" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
@@ -9230,11 +8319,6 @@
           <t>29 EKİM MAHALLESİ ATATÜRK CAD. NO:239/E-25 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J183" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
@@ -9278,11 +8362,6 @@
           <t>GAZİ MAHALLESİ 28/30 SK. ZİRAAT BANKASI APT. NO: 18/1 GAZİEMİR/İZMİR</t>
         </is>
       </c>
-      <c r="J184" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
@@ -9326,11 +8405,6 @@
           <t>ADALET MAHALLESİ MANAS BLV. NO:39/3408 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J185" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
@@ -9374,11 +8448,6 @@
           <t>HUZUR MAHALLESİ AÇELYAM SOKAK A BLOK NO: 7 İÇ KAPI NO: 10 NARLIDERE / İZMİR</t>
         </is>
       </c>
-      <c r="J186" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
@@ -9422,11 +8491,6 @@
           <t>ÖRNEKKÖY MAHALLESİ ÖRNEKKÖY (KÜME EVLER) NO:24/1 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J187" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
@@ -9470,11 +8534,6 @@
           <t>29 EKİM MAHALLESİ ATATÜRK CAD. NO:239 P/52 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J188" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
@@ -9518,11 +8577,6 @@
           <t>YENİKALE MAH. FIRAT SK. NO: 2 İÇ KAPI NO: 3 NARLIDERE / İZMİR</t>
         </is>
       </c>
-      <c r="J189" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
@@ -9566,11 +8620,6 @@
           <t>29 EKİM MAHALLESİ ATATÜRK CAD. NO: 239 C/12 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J190" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
@@ -9614,11 +8663,6 @@
           <t>KONAK MAH. 859 SK. SARAY İŞHANI BLOK NO: 5 İÇ KAPI NO: 506 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J191" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
@@ -9662,11 +8706,6 @@
           <t>ALSANCAK MAH. KIBRIS ŞEHİTLERİ CAD. İŞÇİMENLER İŞ MERKEZİ NO: 146 İÇ KAPI NO: 9 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J192" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
@@ -9710,11 +8749,6 @@
           <t>29 EKİM MAHALLESİ ATATÜRK CAD. NO:239 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J193" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
@@ -9758,11 +8792,6 @@
           <t>NARLI MAHALLESİ ŞENCAN SK. PELİN BLOK NO: 15A NARLIDERE / İZMİR</t>
         </is>
       </c>
-      <c r="J194" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
@@ -9806,11 +8835,6 @@
           <t>ÇAMÖNÜ MAH. 17/1 SK. NO: 25/1 MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J195" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
@@ -9854,11 +8878,6 @@
           <t>29 EKİM MAHALLESİ ATATÜRK CAD. NO: 239 P/35 BUCA/İZMİR</t>
         </is>
       </c>
-      <c r="J196" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
@@ -9902,11 +8921,6 @@
           <t>TELEFERİK MAHALLESİ AKÇAKAYA (KÜME EVLER) H.KABAKCI Apt. NO: 19/1 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J197" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
@@ -9950,11 +8964,6 @@
           <t>UĞUR MUMCU MAH. 8790/11 SK. NO: 2 ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J198" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
@@ -9998,11 +9007,6 @@
           <t>29 EKİM MAHALLESİ ATATÜRK CAD. NO: 239 G/105 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J199" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
@@ -10046,11 +9050,6 @@
           <t>29 EKİM MAHALLESİ ATATÜRK CAD. NO: 239 P/41 BUCA/İZMİR</t>
         </is>
       </c>
-      <c r="J200" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
@@ -10094,11 +9093,6 @@
           <t>MEHMET AKİF ERSOY MAHALLESİ KİRAZLI CD. NO:134/1 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J201" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
@@ -10142,11 +9136,6 @@
           <t>MEHMET AKİF ERSOY MAHALLESİ KİRAZLI CD. NO: 132 A KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J202" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
@@ -10190,11 +9179,6 @@
           <t>NALDÖKEN MAHALLESİ 1273/1 SK. NO: 2 C BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J203" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
@@ -10238,11 +9222,6 @@
           <t>ERZENE MAH. GENÇLİK CAD. NO: 11 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J204" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
@@ -10286,11 +9265,6 @@
           <t>YEŞİLOVA MAHALLESİ 4016 SOKAK ATIFBEY SİTESİ 2 BLOK NO: 8 İÇ KAPI NO: 19 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J205" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
@@ -10334,11 +9308,6 @@
           <t>DOKUZ EYLÜL MAH. 692 SK. NO: 16 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J206" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
@@ -10382,11 +9351,6 @@
           <t>AHMETBEYLİ MAH. CLAROS BUL. NO: 506 MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J207" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
@@ -10430,11 +9394,6 @@
           <t>HACI İSA MAH. ZAFER CAD. NO: 4 URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J208" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
@@ -10478,11 +9437,6 @@
           <t>LİMANREİS MAH. MİTHATPAŞA CAD. NO: 606 NARLIDERE / İZMİR</t>
         </is>
       </c>
-      <c r="J209" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
@@ -10526,11 +9480,6 @@
           <t>ZAFER MAH. TURGUT ÖZAL CAD. NO: 6 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J210" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
@@ -10574,11 +9523,6 @@
           <t>29 EKİM MAH. ATATÜRK CAD.239 G/110 - 239 H/110A NO:/ BUCA/İZMİR</t>
         </is>
       </c>
-      <c r="J211" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
@@ -10622,11 +9566,6 @@
           <t>ZAFER MAH. 2371 SK. NO: 7 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J212" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
@@ -10670,11 +9609,6 @@
           <t>PİRİ REİS MAHALLESİ 200 SOKAK KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J213" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
@@ -10718,11 +9652,6 @@
           <t>FATİH MAH. 1191 SK. NO: 5/6 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J214" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
@@ -10766,11 +9695,6 @@
           <t>ATİLLA MAHALLESİ 464 SOKAK NO: 73C İÇ KAPI NO: C KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J215" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
@@ -10814,11 +9738,6 @@
           <t>CUMHURİYET MAHALLESİ 6702 SK. NO:2 İÇ KAPI NO: 7 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J216" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
@@ -10862,11 +9781,6 @@
           <t>29 EKİM MAHALLESİ ATATÜRK CAD. NO: 239 G/93 BUCA/İZMİR</t>
         </is>
       </c>
-      <c r="J217" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
@@ -10910,11 +9824,6 @@
           <t>ADALET MAH. 1593/13 SK. NO: 26 İÇ KAPI NO: 1 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J218" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
@@ -10958,11 +9867,6 @@
           <t>SALMAN MAH. ZEYTİNCİLER KÜME EVLERİ NO: 95 İÇ KAPI NO: 1 KARABURUN / İZMİR</t>
         </is>
       </c>
-      <c r="J219" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
@@ -11006,11 +9910,6 @@
           <t>KEMALPAŞA O.S.B. MAHALLESİ İZMİR ANKARA ASFALTI CD. NO:7-7/1</t>
         </is>
       </c>
-      <c r="J220" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
@@ -11054,11 +9953,6 @@
           <t>ÇINARLI MAHALLESİ 1572 SK. NO: 33/- KONAK/İZMİR</t>
         </is>
       </c>
-      <c r="J221" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
@@ -11102,11 +9996,6 @@
           <t>KAZIMDİRİK MAH. 369/2 SK. NO: 1 İÇ KAPI NO: 93 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J222" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
@@ -11150,11 +10039,6 @@
           <t>ATIFBEY MAHALLESİ 67 SOKAK NO: 33 İÇ KAPI NO: 32 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J223" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
@@ -11198,11 +10082,6 @@
           <t>HIDIRLIK MAHALLESİ TUZLA CADDESI NO:135 SEFERİHİSAR / İZMİR</t>
         </is>
       </c>
-      <c r="J224" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
@@ -11246,11 +10125,6 @@
           <t>KONAK MAHALLESİ CUMHURİYET BLV. KONAK İŞHANI APT. NO: 24/56 KONAK/İZMİR</t>
         </is>
       </c>
-      <c r="J225" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
@@ -11294,11 +10168,6 @@
           <t>KEMALPAŞA MAHALLESİ 7415 SOKAK NO: 1 İÇ KAPI NO: Z1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J226" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
@@ -11342,11 +10211,6 @@
           <t>ADALET MAHALLESİ ANADOLU CADDESİ NO:41/101 MEGAPOL TOWER BLOK BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J227" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
@@ -11390,11 +10254,6 @@
           <t>MUSTAFA KEMAL MAHALLESİ 6753/1 SOKAK NO:2/7 DAİRE:14 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J228" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
@@ -11438,11 +10297,6 @@
           <t>YELKİ MAH. İNÖNÜ CAD. NO: 28 İÇ KAPI NO: 3 GÜZELBAHÇE / İZMİR</t>
         </is>
       </c>
-      <c r="J229" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
@@ -11486,11 +10340,6 @@
           <t>DOKUZ EYLÜL MAHALLESİ ÖNDER CAD. NO: 38/205 GAZİEMİR/İZMİR</t>
         </is>
       </c>
-      <c r="J230" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
@@ -11534,11 +10383,6 @@
           <t>ZAFER MAH. 2330 SK. NO: 6A BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J231" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
@@ -11582,11 +10426,6 @@
           <t>29 EKİM MAH. ATATÜRK CAD. NO: 239G İÇ KAPI NO: 77 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J232" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
@@ -11630,11 +10469,6 @@
           <t>ALSANCAK MAHALLESİ MAHMUT ESAT BOZKURT CAD. ERAY APT. NO: 29 B KONAK/İZMİR</t>
         </is>
       </c>
-      <c r="J233" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
@@ -11678,11 +10512,6 @@
           <t>ZAFER MAHALLESİ 2342 SK. NO:4 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J234" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
@@ -11726,11 +10555,6 @@
           <t>ZAFER MAH. TURGUT ÖZAL CAD. NO: 110 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J235" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
@@ -11774,11 +10598,6 @@
           <t>İHSAN ALYANAK MAH. 4972 SK. NO: 21 İÇ KAPI NO: MÜSTAKİL KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J236" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
@@ -11822,11 +10641,6 @@
           <t>ADALET MAH. MANAS BUL. NO: 39 İÇ KAPI NO: 2511 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J237" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
@@ -11870,11 +10684,6 @@
           <t>ADALET MAH. MANAS BUL. FOLKART TOWERS NO: 47B İÇ KAPI NO: 2601 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J238" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
@@ -11918,11 +10727,6 @@
           <t>29 EKİM MAH. ATATÜRK CAD. NO: 239P İÇ KAPI NO: 50 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J239" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
@@ -11966,11 +10770,6 @@
           <t>BAHÇELİEVLER MAHALLESİ 1853/3 SK. NO: 2 B KARŞIYAKA/İZMİR</t>
         </is>
       </c>
-      <c r="J240" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
@@ -12014,11 +10813,6 @@
           <t>29 EKİM MAH. 2190 SK. NO: 13A BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J241" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
@@ -12062,11 +10856,6 @@
           <t>BİNBAŞI REŞAT BEY MAHALLESİ 351/1 SOKAK NO:14/A GAZİEMİR/İZMİR</t>
         </is>
       </c>
-      <c r="J242" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
@@ -12110,11 +10899,6 @@
           <t>BASIN SİTESİ MAHALLESİ 169 SOKAK NO:19/8 KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J243" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
@@ -12158,11 +10942,6 @@
           <t>ERZENE MAH. ANKARA CAD. EBİLTEM NO: 172/14 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J244" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
@@ -12206,11 +10985,6 @@
           <t>İTOB ORGANİZE SANAYİ BÖLGESİ TEKELİ MAHALLESİ 10001 SOKAK NO:9 MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J245" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
@@ -12254,11 +11028,6 @@
           <t>29 EKİM MAH. ATATÜRK CAD. NO: 239V İÇ KAPI NO: 21 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J246" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
@@ -12302,11 +11071,6 @@
           <t>29 EKİM MAHALLESİ ATATÜRK CAD. NO:239G/112-239H/112A KAYNAKLAR BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J247" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
@@ -12350,11 +11114,6 @@
           <t>29 EKİM MAHALLESİ ATATÜRK CAD. NO:239/G İÇ KAPI NO: 84 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J248" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
@@ -12398,11 +11157,6 @@
           <t>29 EKİM MAHALLESİ ATATÜRK CAD. NO:239/E-23 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J249" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
@@ -12446,11 +11200,6 @@
           <t>İNCİRALTI MAHALLESİ 8/9 SOKAK NO:58 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J250" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
@@ -12494,11 +11243,6 @@
           <t>ALAÇATI MAHALLESİ 16032 SK. NO:81/B ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J251" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
@@ -12542,11 +11286,6 @@
           <t>NO:47 KUŞÇULAR MAH. 8034 SK URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J252" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
@@ -12590,11 +11329,6 @@
           <t>ALİ FUAT ERDEN MAH. MAHALLESİ 9799. SOKAK NO:20/2 KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J253" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
@@ -12638,11 +11372,6 @@
           <t>ADALET MAHALLESİ ANADOLU CAD. MEGAPOL TOWER BLOK NO: 41 İÇ KAPI NO: 101 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J254" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
@@ -12686,11 +11415,6 @@
           <t>29 EKİM MAHALLESİ ATATÜRK CAD. NO:239/95 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J255" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
@@ -12734,11 +11458,6 @@
           <t>MUSTAFA KEMAL MAHALLESİ BÜLENT ECEVİT CAD. NO:50/A/16 YÜKSEK VADİ EVLERİ Sit. KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J256" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
@@ -12782,11 +11501,6 @@
           <t>KAHRAMANLAR MAHALLESİ 1427 SOKAK NO: 10A İÇ KAPI NO: A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J257" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
@@ -12830,11 +11544,6 @@
           <t>ÇINARLI MAHALLESİ OZAN ABAY CADDESİ NO:10/193 B Apt KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J258" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
@@ -12878,11 +11587,6 @@
           <t>KAHRAMANDERE MAH. ATA CAD. NO: 52 İÇ KAPI NO: 13 GÜZELBAHÇE / İZMİR</t>
         </is>
       </c>
-      <c r="J259" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
@@ -12926,11 +11630,6 @@
           <t>MANSUROĞLU MAH. 1593/1 SK. NO: 6 İÇ KAPI NO: 53 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J260" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
@@ -12974,11 +11673,6 @@
           <t>ADALET MAHALLESİ MANAS BULV. FOLKART TOWERS BLOK NO: 47B İÇ KAPI NO: 260 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J261" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
@@ -13022,11 +11716,6 @@
           <t>ADALET MAHALLESİ ANADOLU CADDESİ NO: 41/1 İÇ KAPI NO: 703 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J262" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
@@ -13070,11 +11759,6 @@
           <t>YALI MAHALLESİ MİTHATPAŞA CD. NO:110 GÜZELBAHÇE / İZMİR</t>
         </is>
       </c>
-      <c r="J263" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
@@ -13118,11 +11802,6 @@
           <t>ADALET MAHALLESİ MANAS BLV. NO: 12 /2 BAYRAKLI/İZMİR</t>
         </is>
       </c>
-      <c r="J264" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
@@ -13166,11 +11845,6 @@
           <t>ADALET MAH. MANAS BUL. FOLKART TOWERS NO: 47B İÇ KAPI NO: 2601 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J265" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
@@ -13214,11 +11888,6 @@
           <t>29 EKİM MAHALLESİ ATATÜRK CAD. NO: 239G İÇ KAPI NO: 87 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J266" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
@@ -13262,11 +11931,6 @@
           <t>MALTEPE MAHALLESİ 110 SK. NO: 20/_ GÜZELBAHÇE/İZMİR</t>
         </is>
       </c>
-      <c r="J267" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
@@ -13310,11 +11974,6 @@
           <t>29 EKİM MAHALLESİ ATATÜRK CAD. NO: 239G İÇ KAPI NO: 104 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J268" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
@@ -13358,11 +12017,6 @@
           <t>CAMİKEBİR MAH. 50 SOK NO:3A SEFERİHİSAR/İZMİR</t>
         </is>
       </c>
-      <c r="J269" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
@@ -13406,11 +12060,6 @@
           <t>GÜZELYURT MAHALLESİ 920 SOK. NO:50 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J270" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
@@ -13454,11 +12103,6 @@
           <t>29 EKİM MAHALLESİ ATATÜRK CAD. NO:239/V14 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J271" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
@@ -13502,11 +12146,6 @@
           <t>KİBAR MAH. 3777 SK. NO: 4 İÇ KAPI NO: 3 KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J272" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
@@ -13550,11 +12189,6 @@
           <t>KORUTÜRK MAHALLESİ V. HÜSEYİN ÖĞÜTÇEN CAD. DİKMEN Apt. NO: 5 /A/7 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J273" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
@@ -13598,11 +12232,6 @@
           <t>YILDIZ MAH. AHMET PİRİŞTİNA BUL. NO: 21 İÇ KAPI NO: 20 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J274" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
@@ -13646,11 +12275,6 @@
           <t>YEŞİLOVA MAHALLESİ 4045 SOKAK NO: 48A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J275" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
@@ -13694,11 +12318,6 @@
           <t>29 EKİM MAH. ATATÜRK CAD. NO: 239P İÇ KAPI NO: 38 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J276" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
@@ -13742,11 +12361,6 @@
           <t>KUŞÇULAR MAHALLESİ 8012 SOKAK NO:15 URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J277" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
@@ -13790,11 +12404,6 @@
           <t>29 EKİM MAHALLESİ ATATÜRK CAD. NO:239/V-33 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J278" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
@@ -13838,11 +12447,6 @@
           <t>YİĞİTLER MAH. YİĞİTLER YOLU KÜME EVLERİ 18372856 SİTESİ NO: 254 İÇ KAPI NO: 1 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J279" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
@@ -13886,11 +12490,6 @@
           <t>HIDIRLIK MAH. 78/2 SK. NO: 7H SEFERİHİSAR / İZMİR</t>
         </is>
       </c>
-      <c r="J280" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
@@ -13934,11 +12533,6 @@
           <t>HALKAPINAR MAH. 1203/11 SK. K.HASAN ATLI İŞMERK. BLOK NO: 4 İÇ KAPI NO: 630 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J281" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
@@ -13982,11 +12576,6 @@
           <t>YERALTI MAHALLESİ İNCİRLİ KÜME EVLERİ NO: 103 URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J282" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
@@ -14030,11 +12619,6 @@
           <t>ERGENE MAHALLESİ MUSTAFA KEMAL CAD. ÇELİK Sit. B Apt. NO: 20 /1/5 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J283" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
@@ -14078,11 +12662,6 @@
           <t>MEHMET AKİF ERSOY MAH. DR. ALİ KARAMAN CAD. NO: 6A KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J284" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
@@ -14126,11 +12705,6 @@
           <t>İÇMELER MAHALLESİ ESKİ URLA-İZMİR YOLU CAD. NO: 36 İÇ KAPI NO: 1 URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J285" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
@@ -14174,11 +12748,6 @@
           <t>İSMET KAPTAN MAH. ŞEHİT NEVRES BUL. DEREN PLAZA NO: 10 İÇ KAPI NO: 11 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J286" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
@@ -14222,11 +12791,6 @@
           <t>ZEYTİNLER MAH. GAZİ MUSTAFA KEMAL CAD. NO: 35A URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J287" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
@@ -14270,11 +12834,6 @@
           <t>CUMHURİYET MAHALLESİ İZMİR ANKARA ASFALTI 35. KM NO:200/A KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J288" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
@@ -14318,11 +12877,6 @@
           <t>ADALET MAHALLESİ MANAS BLV. FOLKART TOWERS BLOK NO:47B İÇ KAPI NO:2601 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J289" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
@@ -14366,11 +12920,6 @@
           <t>ZAFER MAHALLESİ 2360 SK. NO:49 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J290" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
@@ -14414,11 +12963,6 @@
           <t>HALKAPINAR MAHALLESİ 1082 SOKAK NO:3 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J291" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
@@ -14462,11 +13006,6 @@
           <t>MEHMET AKİF ERSOY MAH. SAYRA&amp;ÇINAR KÜME EVLERİ NO: 2 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J292" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
@@ -14510,11 +13049,6 @@
           <t>29 EKİM MAHALLESİ ATATÜRK CAD. NO:239/P DAİRE:46 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J293" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
@@ -14558,11 +13092,6 @@
           <t>GÜRPINAR MAHALLESİ 7232/8 SK. AY-KOOP SİT. NO: 39 A BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J294" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
@@ -14606,11 +13135,6 @@
           <t>CAMİKEBİR MAH. 52 SK. NO: 2 İÇ KAPI NO: 101 SEFERİHİSAR / İZMİR</t>
         </is>
       </c>
-      <c r="J295" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
@@ -14654,11 +13178,6 @@
           <t>BAHRİYE ÜÇOK MAHALLESİ 1827 SK. NO:11/A GÜRAY BLOK KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J296" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
@@ -14702,11 +13221,6 @@
           <t>29 EKİM MAHALLESİ ATATÜRK CAD. NO: 239 ZL BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J297" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
@@ -14750,11 +13264,6 @@
           <t>KURUÇEŞME MAHALLESİ 205/17 SK. KESKİN BLOK NO: 31A BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J298" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
@@ -14798,11 +13307,6 @@
           <t>ALAYBEY MAH. ŞEHİT ASIM AKSOY CAD. AKTAN NO: 47A KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J299" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
@@ -14846,11 +13350,6 @@
           <t>BALATÇIK MAH. 8788/10 SK. B-BLOK NO: 5D ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J300" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
@@ -14894,11 +13393,6 @@
           <t>BEYLER MAHALLESİ NO:46 SARILAR KÖYÜ KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J301" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
@@ -14942,11 +13436,6 @@
           <t>29 EKİM MAHALLESİ ATATÜRK CAD. NO:239/P63 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J302" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
@@ -14990,11 +13479,6 @@
           <t>KAVAKLIDERE MAH. KAVAK SK. NO: 2 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J303" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
@@ -15038,11 +13522,6 @@
           <t>MANSUROĞLU MAHALLESİ 286/2 SOK. NO: 2/15 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J304" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
@@ -15086,11 +13565,6 @@
           <t>YAYLACIK MAHALLESİ BAŞARI CAD. NO:134/1 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J305" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
@@ -15134,11 +13608,6 @@
           <t>ADALET MAH. MANAS BUL. FOLKART TOWERS NO: 47B İÇ KAPI NO: 2601 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J306" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
@@ -15182,11 +13651,6 @@
           <t>MEHMET ALİ AKMAN MAHALLESİ 18/1 SOKAK NO:2/14 KONAK/İZMİR</t>
         </is>
       </c>
-      <c r="J307" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
@@ -15230,11 +13694,6 @@
           <t>ÇİLE MAHALLESİ 7457 SK. NO:14/1 MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J308" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
@@ -15278,11 +13737,6 @@
           <t>ÇINARLI MAH. 1572 SK. NO: 33 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J309" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
@@ -15326,11 +13780,6 @@
           <t>29 EKİM MAH. ATATÜRK CAD. NO: 239P İÇ KAPI NO: 49 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J310" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
@@ -15374,11 +13823,6 @@
           <t>29 EKİM MAHALLESİ ATATÜRK CAD. NO: 239 P/68 BUCA/İZMİR</t>
         </is>
       </c>
-      <c r="J311" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
@@ -15422,11 +13866,6 @@
           <t>ADALET MAHALLESİ 1586/7 SOK. NO: 2 İÇ KAPI NO: 1 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J312" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
@@ -15470,11 +13909,6 @@
           <t>BALATÇIK MAH. 8900 SK. NO: 14A ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J313" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
@@ -15518,11 +13952,6 @@
           <t>ADALET MAH. MANAS BUL. FOLKART TOWERS NO: 39 İÇ KAPI NO: 3201 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J314" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
@@ -15566,11 +13995,6 @@
           <t>ESENTEPE MAHALLESİ 14 SK. NO:103 KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J315" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
@@ -15614,11 +14038,6 @@
           <t>ALSANCAK MAHALLESİ 1479 SOKAK NO:16/2 KENET SİTESİ Apt. KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J316" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
@@ -15662,11 +14081,6 @@
           <t>EGEMENLİK MAHALLESİ 6153 SK. NO: 4 S/0 BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J317" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
@@ -15710,11 +14124,6 @@
           <t>29 EKİM MAHALLESİ ATATÜRK CAD. NO: 239 P/47 BUCA/İZMİR</t>
         </is>
       </c>
-      <c r="J318" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
@@ -15758,11 +14167,6 @@
           <t>29 EKİM MAHALLESİ ATATÜRK CAD. NO:239 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J319" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
@@ -15806,11 +14210,6 @@
           <t>KEMALPAŞA MAHALLESİ 7087/3 SOKAK NO:1/3 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J320" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
@@ -15854,11 +14253,6 @@
           <t>YERALTI MAHALLESİ İNCİRLİ KÜME EVLERİ NO:96/O URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J321" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
@@ -15902,11 +14296,6 @@
           <t>GÜZELYALI MAHALLESİ MİTHATPAŞA CD. NO:917/12 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J322" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
@@ -15950,11 +14339,6 @@
           <t>ZEYBEK MAH. SELİMİYE CAD. NO: 40A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J323" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
@@ -15998,11 +14382,6 @@
           <t>DUMLUPINAR MAHALLESİ 90 SK. NO:7/3 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J324" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
@@ -16046,11 +14425,6 @@
           <t>CÜNEYTBEY MAHALLESİ İBRAHİM TURAN CAD. NO: 8 İÇ KAPI NO: 2 MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J325" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
@@ -16094,11 +14468,6 @@
           <t>GÖKSU MAHALLESİ 679 SK. NO: 23 İÇ KAPI NO: 1 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J326" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
@@ -16142,11 +14511,6 @@
           <t>SOĞUKKUYU MAH. 1847/14 SK. NO: 1 İÇ KAPI NO: 2 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J327" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
@@ -16190,11 +14554,6 @@
           <t>BAHÇELİEVLER MAH. ŞEHİT MUSTAFA TUNÇBİLEK SK. ALİ AĞA BLOK NO: 94A KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J328" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
@@ -16238,11 +14597,6 @@
           <t>BAHARİYE MAH. 1690 SK. NO: 148A KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J329" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
@@ -16286,11 +14640,6 @@
           <t>KAZIMDİRİK MAH. ÜNİVERSİTE CAD. ÖZGÖRKEY NO: 66 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J330" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
@@ -16334,11 +14683,6 @@
           <t>KÜLTÜR MAHALLESİ CUMHURİYET BULVARI B BLOK NO: 141 İÇ KAPI NO: 1 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J331" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
@@ -16382,11 +14726,6 @@
           <t>ÇINARLI MAH. 1572 SK. NO: 33 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J332" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
@@ -16430,11 +14769,6 @@
           <t>NO:57/3 VATAN MAHALLESİ 9100 SK. KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J333" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
@@ -16478,11 +14812,6 @@
           <t>29 EKİM MAH. ATATÜRK CAD. NO: 239ZA BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J334" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
@@ -16526,11 +14855,6 @@
           <t>İNCİRALTI MAH. İNCİRALTI CAD. NO: 181 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J335" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
@@ -16574,11 +14898,6 @@
           <t>TEPECİK MAHALLESİ KUŞADASI CAD. NO: 77 D/ SEFERİHİSAR/İZMİR</t>
         </is>
       </c>
-      <c r="J336" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
@@ -16622,11 +14941,6 @@
           <t>TEPECİK MAH. KUŞADASI CAD. UÇAK KARDEŞLER NO: 79 SEFERİHİSAR / İZMİR</t>
         </is>
       </c>
-      <c r="J337" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
@@ -16670,11 +14984,6 @@
           <t>ULUCAK MUSTAFA KEMAL ATATÜRK MAH. MEHMET AKİF ERSOY CAD. NO: 31B KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J338" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
@@ -16718,11 +15027,6 @@
           <t>YENİMAHALLE MAHALLESİ 8207 SK. NO: 11 A/0 ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J339" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
@@ -16766,11 +15070,6 @@
           <t>HALKAPINAR MAHALLESİ 1203/11 SOKAK NO: 5-7 İÇ KAPI NO: 175 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J340" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
@@ -16814,11 +15113,6 @@
           <t>ATIFBEY MAHALLESİ FERİDUN PÖZÜT CAD. NO:40/A/A GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J341" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
@@ -16862,11 +15156,6 @@
           <t>DEDEBAŞI MAHALLESİ 1595 SK NO:225/405 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J342" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
@@ -16910,11 +15199,6 @@
           <t>YALI MAHALLESİ 6323/1 SK. NO:18/E KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J343" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
@@ -16958,11 +15242,6 @@
           <t>29 EKİM MAHALLESİ ATATÜRK CAD. NO:239/V/12 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J344" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
@@ -17006,11 +15285,6 @@
           <t>KÜLTÜR MAH. MUSTAFA MÜNİR BİRSEL SK. KORDON İŞ HANI BLOK NO: 4/1 İÇ KAPI NO: 202 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J345" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
@@ -17054,11 +15328,6 @@
           <t>29 EKİM MAHALLESİ ATATÜRK CAD. NO:239/V 24 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J346" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
@@ -17102,11 +15371,6 @@
           <t>MANSUROĞLU MAHALLESİ 221 SOK. GÜLAY BLOK NO: 22A BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J347" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
@@ -17150,11 +15414,6 @@
           <t>ADALET MAH. MANAS BUL. NO: 39 İÇ KAPI NO: 3408 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J348" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
@@ -17198,11 +15457,6 @@
           <t>AĞAÇÇEŞMESİ MEVKİİ MAHALLESİ NO:9 DÜZCE KÖYÜ AĞAÇEŞMESİ MEVKİİ SEFERİHİSAR/İZMİR</t>
         </is>
       </c>
-      <c r="J349" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
@@ -17246,11 +15500,6 @@
           <t>SEKİZ EYLÜL MAHALLESİ İZMİR CAD. NO: 103B KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J350" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
@@ -17294,11 +15543,6 @@
           <t>GONCALAR MAHALLESİ 6007/7 SK. NO: 26 A KARŞIYAKA/İZMİR</t>
         </is>
       </c>
-      <c r="J351" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
@@ -17342,11 +15586,6 @@
           <t>İSMET KAPTAN MAHALLESİ 1385 SOKAK YENİ ASIR İŞ MERKEZİ BLOK NO: 3 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J352" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
@@ -17390,11 +15629,6 @@
           <t>KAHRAMANLAR MAHALLESİ EMRE ÖZDESTAN SK. NO:17/65 DEREN İŞ MRK. BLOK KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J353" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
@@ -17438,11 +15672,6 @@
           <t>YAKA MAH. ERDOĞAN KER CAD. NO: 77/71 URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J354" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
@@ -17486,11 +15715,6 @@
           <t>KÜÇÜK ÇİĞLİ MAHALLESİ 8754/1 SOKAK NO:6/A ÇİĞLİ ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J355" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
@@ -17534,11 +15758,6 @@
           <t>75.YIL CUMHURİYET MAHALLESİ NO:5 KARASULUK MEVKİİ KEMALPAŞA/İZMİR</t>
         </is>
       </c>
-      <c r="J356" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
@@ -17582,11 +15801,6 @@
           <t>GÖKDERE MAHALLESİ CEYLAN SOKAK NO:9/B BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J357" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
@@ -17630,11 +15844,6 @@
           <t>CUMHURİYET MAHALLESİ TEMELPAŞA CAD. NO:40 GÜMÜLDÜR / İZMİR</t>
         </is>
       </c>
-      <c r="J358" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
@@ -17678,11 +15887,6 @@
           <t>MENDERES MAH. 1114 SK. NO: 6 İÇ KAPI NO: 2 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J359" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
@@ -17726,11 +15930,6 @@
           <t>ZAFER MAHALLESİ TURGUT ÖZAL CAD. NO: 110 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J360" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
@@ -17774,11 +15973,6 @@
           <t>29 EKİM MAH. ATATÜRK CAD. NO: 239V İÇ KAPI NO: 13 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J361" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
@@ -17822,11 +16016,6 @@
           <t>ALSANCAK MAHALLESİ 1473 SOKAK NO:5/608 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J362" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
@@ -17870,11 +16059,6 @@
           <t>TEPECİK MAHALLESİ KUŞADASI CAD. UÇAK KARDEŞLER BLOK NO: 79A SEFERİHİSAR / İZMİR</t>
         </is>
       </c>
-      <c r="J363" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
@@ -17918,11 +16102,6 @@
           <t>MERİÇ MAHALLESİ 5747/3 SK. NO: 1/1 BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J364" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
@@ -17964,11 +16143,6 @@
       <c r="I365" s="2" t="inlineStr">
         <is>
           <t>ÇORAKKAPI MAHALLESİ MÜRSELPAŞA BULV. NO:24 ASLANBEY İŞHANI KAT:7 DAİRE:14 KONAK/İZMİR</t>
-        </is>
-      </c>
-      <c r="J365" s="2" t="inlineStr">
-        <is>
-          <t>01 - YAŞ SEBZE MEYVE GRUBU</t>
         </is>
       </c>
     </row>
